--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864688C-CA61-4C70-87F7-943BB7740E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2B9D6-D9C2-4708-8355-B0101A79FEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -664,18 +664,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,6 +697,18 @@
     <xf numFmtId="164" fontId="5" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,20 +972,20 @@
   </sheetPr>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
-    <col min="3" max="3" width="48.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.08984375" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>171.17</v>
+        <v>174.67</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="4" t="s">
@@ -1039,29 +1039,29 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
       <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="2">
         <f>F7+F13+F20+F43+F45+F46</f>
-        <v>23.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1185,11 +1185,11 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1357,11 +1357,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
@@ -1920,11 +1920,11 @@
         <v>40</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>11</v>
       </c>
@@ -2169,40 +2169,40 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G48" sqref="A1:G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="17" t="s">
         <v>62</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -2214,25 +2214,25 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="17">
         <v>1.5</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="19">
         <v>45202</v>
       </c>
       <c r="J2" s="13" t="s">
@@ -2242,801 +2242,801 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="17">
         <v>1.5</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="22">
         <v>45202</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <v>40</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="24">
         <v>45216</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="17">
         <v>5</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="26">
         <v>45216</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="17" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <v>1.5</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="26">
         <v>45216</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="17">
         <v>8</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="17">
         <v>5</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="18">
         <v>1</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="17">
         <v>3</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="18">
         <v>1</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="17">
         <v>7</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="17">
         <v>0.5</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="17">
         <v>1.5</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="17">
         <v>1</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="27">
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="17" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="17">
         <v>3</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="17">
         <v>2</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="17">
         <v>2</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="17">
         <v>3</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="18">
         <v>1</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="17">
         <v>0.5</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="17">
         <v>1.5</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="17">
         <v>2</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="28">
         <v>45216</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="17">
         <v>2</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="29">
         <v>45216</v>
       </c>
     </row>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864688C-CA61-4C70-87F7-943BB7740E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C529449F-FC34-4ACB-BB1D-DFCFFCB63032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -664,18 +664,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,6 +697,18 @@
     <xf numFmtId="164" fontId="5" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,20 +972,20 @@
   </sheetPr>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
-    <col min="3" max="3" width="48.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.08984375" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,12 +1022,12 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E1003)</f>
+        <f t="shared" ref="E3" si="0">SUM(E6:E1003)</f>
         <v>116.5</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>171.17</v>
+        <f>SUM(F6:F1003)</f>
+        <v>171.82999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="4" t="s">
@@ -1039,14 +1039,14 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
       <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1056,18 +1056,18 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="2">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66</f>
-        <v>42.720000000000006</v>
+        <v>43.38</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1185,11 +1185,11 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -1752,11 +1752,11 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>5.8</v>
+        <v>6.46</v>
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
@@ -1920,11 +1920,11 @@
         <v>40</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>11</v>
       </c>
@@ -2169,40 +2169,40 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G48" sqref="A1:G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="17" t="s">
         <v>62</v>
       </c>
       <c r="J1" s="13" t="s">
@@ -2214,25 +2214,25 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="17">
         <v>1.5</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="19">
         <v>45202</v>
       </c>
       <c r="J2" s="13" t="s">
@@ -2242,801 +2242,801 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="17">
         <v>1.5</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="22">
         <v>45202</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="17" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <v>40</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="24">
         <v>45216</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="17">
         <v>5</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="26">
         <v>45216</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="25" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="17" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <v>1.5</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="26">
         <v>45216</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="25" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="17">
         <v>2</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="24"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="17">
         <v>8</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="17" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="17">
         <v>5</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="18">
         <v>1</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="17">
         <v>3</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="17" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="18">
         <v>1</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="17">
         <v>1</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="17">
         <v>7</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="17">
         <v>0.5</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="17">
         <v>1.5</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="17" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="17">
         <v>1</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="27">
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="17" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="17">
         <v>3</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="34">
+      <c r="G40" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="17">
         <v>2</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="34">
+      <c r="G41" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="17">
         <v>2</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="17">
         <v>3</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="18">
         <v>1</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="17">
         <v>0.5</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="25" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="17">
         <v>1.5</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="17" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="17">
         <v>2</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="28">
         <v>45216</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="A48" s="16">
         <v>47</v>
       </c>
       <c r="B48" s="14"/>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="17">
         <v>2</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="29">
         <v>45216</v>
       </c>
     </row>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2B9D6-D9C2-4708-8355-B0101A79FEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F96BFE3-3DCF-41B3-AADE-94EE760DC8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="A2:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>174.67</v>
+        <v>177.67</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="4" t="s">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="K4" s="2">
         <f>F7+F13+F20+F43+F45+F46</f>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,8 +1737,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F96BFE3-3DCF-41B3-AADE-94EE760DC8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02C05D8-E1DE-4C6E-B793-A895F88A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -972,20 +972,20 @@
   </sheetPr>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="48.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>177.67</v>
+        <v>181.67</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="4" t="s">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="K6" s="2">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F67+F68</f>
-        <v>32.6</v>
+        <v>36.6</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="33"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -1726,7 +1726,7 @@
       <c r="F42" s="34"/>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -1805,10 +1805,12 @@
       <c r="E47" s="1">
         <v>8</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -1824,7 +1826,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1842,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1856,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +1874,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1892,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1910,7 @@
       </c>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
@@ -1926,7 +1928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
@@ -1942,7 +1944,7 @@
       </c>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>11</v>
       </c>
@@ -1958,7 +1960,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -1974,7 +1976,7 @@
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -1988,7 +1990,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2004,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2018,7 +2020,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>11</v>
       </c>
@@ -2175,13 +2177,13 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2244,7 +2246,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2481,7 +2483,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -2502,7 +2504,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -2536,7 +2538,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -2583,7 +2585,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -2617,7 +2619,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -2651,7 +2653,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -2687,7 +2689,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -2700,7 +2702,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -2799,7 +2801,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -2812,7 +2814,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -2846,7 +2848,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -2859,7 +2861,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>39</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>41</v>
       </c>
@@ -2922,7 +2924,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>42</v>
       </c>
@@ -2943,7 +2945,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>45</v>
       </c>
@@ -3000,7 +3002,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>46</v>
       </c>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02C05D8-E1DE-4C6E-B793-A895F88A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F46107-10FC-4DA9-809F-272B2DDBCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -972,8 +972,8 @@
   </sheetPr>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>181.67</v>
+        <v>186.67</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="4" t="s">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="K8" s="2">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60</f>
-        <v>5.35</v>
+        <v>10.35</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -1987,7 +1987,9 @@
         <v>13</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -2001,7 +2003,9 @@
         <v>41</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F46107-10FC-4DA9-809F-272B2DDBCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA4540-E578-48F3-889D-DDECD4820F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
   <si>
     <t>Nombre</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Avatares</t>
-  </si>
-  <si>
-    <t>Photoshop</t>
   </si>
   <si>
     <t>Diseño de Moneda</t>
@@ -454,7 +451,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -709,6 +712,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,22 +974,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P68"/>
+  <dimension ref="A2:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" customWidth="1"/>
-    <col min="3" max="3" width="48.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.08984375" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,19 +1026,19 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E1003)</f>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E1002)</f>
         <v>116.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>186.67</v>
+        <v>197.67</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2">
-        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65</f>
+        <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64</f>
         <v>48.5</v>
       </c>
     </row>
@@ -1066,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="2">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66</f>
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
         <v>42.720000000000006</v>
       </c>
       <c r="L5" s="2"/>
@@ -1092,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="2">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F67+F68</f>
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
         <v>36.6</v>
       </c>
       <c r="L6" s="2"/>
@@ -1118,8 +1122,8 @@
         <v>15</v>
       </c>
       <c r="K7" s="2">
-        <f>F10+F16+F39+F40+F48+F49+F50+F51</f>
-        <v>16</v>
+        <f>F10+F16+F39+F40+F48+F49+F50</f>
+        <v>27</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1144,7 +1148,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="2">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60</f>
+        <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59</f>
         <v>10.35</v>
       </c>
       <c r="L8" s="2"/>
@@ -1343,7 +1347,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1365,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1383,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1401,7 @@
       </c>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1417,7 @@
       </c>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +1435,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1447,7 +1451,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1465,7 +1469,7 @@
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1481,7 +1485,7 @@
       </c>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1503,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1519,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1550,7 +1554,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1572,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1582,7 +1586,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1604,7 @@
       </c>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1618,7 +1622,7 @@
       </c>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1640,7 @@
       </c>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1658,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1676,7 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -1690,7 +1694,7 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1712,7 @@
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="30" t="s">
         <v>36</v>
       </c>
@@ -1718,7 +1722,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="33"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -1726,7 +1730,7 @@
       <c r="F42" s="34"/>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -1742,7 +1746,7 @@
       </c>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1762,7 @@
       </c>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +1780,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1796,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -1810,7 +1814,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -1823,10 +1827,12 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="38"/>
+    </row>
+    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -1839,128 +1845,132 @@
       <c r="E49" s="1">
         <v>1.5</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G49" s="38"/>
+    </row>
+    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>15</v>
+      <c r="D50" s="1">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="1">
-        <v>43</v>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E51" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>0.5</v>
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>13</v>
+      <c r="D52" s="1">
+        <v>36</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>40</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="1">
-        <v>36</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>8</v>
+    </row>
+    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <v>40</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1">
+        <v>39</v>
+      </c>
       <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="F55" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>11</v>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="1">
-        <v>39</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1">
+        <v>1.5</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -1972,73 +1982,75 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>13</v>
+      <c r="D58" s="1">
+        <v>41</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="1">
-        <v>41</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>16</v>
+    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="1"/>
       <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>0.5</v>
       </c>
-      <c r="F61" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G61" s="12"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
@@ -2051,10 +2063,10 @@
         <v>13</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -2069,10 +2081,10 @@
         <v>13</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G63" s="7"/>
     </row>
@@ -2087,19 +2099,20 @@
         <v>13</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F64" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G64" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>113</v>
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>C64</f>
+        <v>Implementar en carta más alta saldo cuenta</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -2113,23 +2126,20 @@
       <c r="G65" s="12"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f>C65</f>
-        <v>Implementar en carta más alta saldo cuenta</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="1">
+        <v>31</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
@@ -2138,26 +2148,10 @@
       <c r="C67" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="1">
-        <v>31</v>
-      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1">
-        <v>3</v>
-      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2181,40 +2175,40 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="K1" s="2">
         <f>SUM(B2:B1000)</f>
@@ -2229,49 +2223,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="17">
         <v>1.5</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="G2" s="19">
         <v>45202</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17">
         <v>1.5</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G3" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2279,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="17">
         <v>5</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G4" s="22">
         <v>45202</v>
@@ -2300,7 +2294,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2313,16 +2307,16 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="17">
         <v>40</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="24">
         <v>45216</v>
@@ -2340,10 +2334,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="26">
         <v>45216</v>
@@ -2355,7 +2349,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -2374,10 +2368,10 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="26">
         <v>45216</v>
@@ -2389,7 +2383,7 @@
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2402,7 +2396,7 @@
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2415,7 +2409,7 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2428,7 +2422,7 @@
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -2441,7 +2435,7 @@
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -2454,7 +2448,7 @@
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2467,7 +2461,7 @@
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -2480,35 +2474,35 @@
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G18" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -2520,29 +2514,29 @@
         <v>3</v>
       </c>
       <c r="E19" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -2554,76 +2548,76 @@
         <v>2</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G21" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="17">
         <v>8</v>
       </c>
       <c r="E24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="G24" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -2635,29 +2629,29 @@
         <v>5</v>
       </c>
       <c r="E26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G26" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -2665,48 +2659,48 @@
         <v>1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="17">
         <v>3</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -2714,64 +2708,64 @@
         <v>1</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G31" s="22">
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="17">
         <v>7</v>
       </c>
       <c r="E32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G32" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="17">
         <v>0.5</v>
       </c>
       <c r="E33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G33" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -2783,173 +2777,173 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G34" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="27">
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>39</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="17">
         <v>3</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="17">
         <v>2</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>41</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="17">
         <v>2</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>42</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="17">
         <v>3</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>43</v>
       </c>
@@ -2957,71 +2951,71 @@
         <v>1</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="17">
         <v>0.5</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="17">
         <v>1.5</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>45</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="17">
         <v>2</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G47" s="28">
         <v>45216</v>
@@ -3033,16 +3027,16 @@
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="17">
         <v>2</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="29">
         <v>45216</v>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C529449F-FC34-4ACB-BB1D-DFCFFCB63032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4777247-CD67-4D33-9DDB-B6E405DD5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
   <si>
     <t>Nombre</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Avatares</t>
-  </si>
-  <si>
-    <t>Photoshop</t>
   </si>
   <si>
     <t>Diseño de Moneda</t>
@@ -454,7 +451,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,6 +700,7 @@
     <xf numFmtId="164" fontId="5" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -970,10 +974,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P68"/>
+  <dimension ref="A2:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1022,52 +1026,52 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3" si="0">SUM(E6:E1003)</f>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E1002)</f>
         <v>116.5</v>
       </c>
       <c r="F3" s="3">
-        <f>SUM(F6:F1003)</f>
-        <v>171.82999999999998</v>
+        <f t="shared" si="0"/>
+        <v>198.76999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2">
-        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65</f>
+        <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64</f>
         <v>48.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="2">
         <f>F7+F13+F20+F43+F45+F46</f>
-        <v>23.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
       <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="2">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66</f>
-        <v>43.38</v>
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
+        <v>43.820000000000007</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1092,8 +1096,8 @@
         <v>14</v>
       </c>
       <c r="K6" s="2">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F67+F68</f>
-        <v>32.6</v>
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
+        <v>36.6</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1118,8 +1122,8 @@
         <v>15</v>
       </c>
       <c r="K7" s="2">
-        <f>F10+F16+F39+F40+F48+F49+F50+F51</f>
-        <v>16</v>
+        <f>F10+F16+F39+F40+F48+F49+F50</f>
+        <v>27</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1144,8 +1148,8 @@
         <v>16</v>
       </c>
       <c r="K8" s="2">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60</f>
-        <v>5.35</v>
+        <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59</f>
+        <v>10.35</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1185,11 +1189,11 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1357,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="G20" s="12"/>
     </row>
@@ -1709,22 +1713,22 @@
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -1737,8 +1741,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -1752,7 +1758,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>6.46</v>
+        <v>6.8</v>
       </c>
       <c r="G44" s="12"/>
     </row>
@@ -1803,8 +1809,10 @@
       <c r="E47" s="1">
         <v>8</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
@@ -1819,8 +1827,10 @@
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
@@ -1835,8 +1845,10 @@
       <c r="E49" s="1">
         <v>1.5</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
@@ -1845,25 +1857,29 @@
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="D50" s="1">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>15</v>
+      <c r="B51" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="1">
-        <v>43</v>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E51" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>0.5</v>
@@ -1877,14 +1893,14 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>13</v>
+      <c r="D52" s="1">
+        <v>36</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G52" s="7"/>
     </row>
@@ -1893,36 +1909,34 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>40</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="1">
-        <v>36</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>8</v>
+      <c r="B54" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="1">
-        <v>5</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <v>40</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="15" t="s">
-        <v>47</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
@@ -1931,30 +1945,32 @@
       <c r="C55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1">
+        <v>39</v>
+      </c>
       <c r="E55" s="1">
         <v>3</v>
       </c>
       <c r="F55" s="1">
-        <v>6.5</v>
+        <v>0.1</v>
       </c>
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>11</v>
+      <c r="B56" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="1">
-        <v>39</v>
-      </c>
-      <c r="E56" s="1">
-        <v>3</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
@@ -1968,9 +1984,9 @@
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
@@ -1979,12 +1995,14 @@
       <c r="C58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>13</v>
+      <c r="D58" s="1">
+        <v>41</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
@@ -1993,44 +2011,48 @@
       <c r="C59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="1">
-        <v>41</v>
-      </c>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>16</v>
+      <c r="B60" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="1"/>
       <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
         <v>0.5</v>
       </c>
-      <c r="F61" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G61" s="12"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
@@ -2043,10 +2065,10 @@
         <v>13</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="7"/>
     </row>
@@ -2061,10 +2083,10 @@
         <v>13</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G63" s="7"/>
     </row>
@@ -2079,19 +2101,20 @@
         <v>13</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F64" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G64" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>113</v>
+      <c r="B65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>C64</f>
+        <v>Implementar en carta más alta saldo cuenta</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -2105,21 +2128,18 @@
       <c r="G65" s="12"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <f>C65</f>
-        <v>Implementar en carta más alta saldo cuenta</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="1">
+        <v>31</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G66" s="12"/>
     </row>
@@ -2130,26 +2150,10 @@
       <c r="C67" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="1">
-        <v>31</v>
-      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1">
-        <v>3</v>
-      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2169,8 +2173,8 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G48" sqref="A1:G48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2185,28 +2189,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="K1" s="2">
         <f>SUM(B2:B1000)</f>
@@ -2221,22 +2225,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="17">
         <v>1.5</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="G2" s="19">
         <v>45202</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2">
         <v>46</v>
@@ -2248,16 +2252,16 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="17">
         <v>1.5</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G3" s="22">
         <v>45202</v>
@@ -2271,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="17">
         <v>5</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G4" s="22">
         <v>45202</v>
@@ -2292,7 +2296,7 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -2305,16 +2309,16 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="17">
         <v>40</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="24">
         <v>45216</v>
@@ -2332,10 +2336,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="26">
         <v>45216</v>
@@ -2347,7 +2351,7 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -2366,10 +2370,10 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="26">
         <v>45216</v>
@@ -2381,7 +2385,7 @@
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2394,7 +2398,7 @@
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -2407,7 +2411,7 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -2420,7 +2424,7 @@
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -2433,7 +2437,7 @@
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -2446,7 +2450,7 @@
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -2459,7 +2463,7 @@
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -2472,7 +2476,7 @@
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -2485,16 +2489,16 @@
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="17">
         <v>3</v>
       </c>
       <c r="E18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G18" s="26">
         <v>45216</v>
@@ -2512,10 +2516,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="26">
         <v>45216</v>
@@ -2527,7 +2531,7 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -2546,10 +2550,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G21" s="26">
         <v>45216</v>
@@ -2561,7 +2565,7 @@
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -2574,7 +2578,7 @@
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2587,16 +2591,16 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="17">
         <v>8</v>
       </c>
       <c r="E24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="G24" s="26">
         <v>45216</v>
@@ -2608,7 +2612,7 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2627,10 +2631,10 @@
         <v>5</v>
       </c>
       <c r="E26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G26" s="26">
         <v>45216</v>
@@ -2642,7 +2646,7 @@
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -2657,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="17">
         <v>3</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="22">
         <v>45202</v>
@@ -2678,7 +2682,7 @@
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -2691,7 +2695,7 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -2706,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="17">
         <v>1</v>
       </c>
       <c r="E31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G31" s="22">
         <v>45202</v>
@@ -2727,16 +2731,16 @@
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="17">
         <v>7</v>
       </c>
       <c r="E32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G32" s="26">
         <v>45216</v>
@@ -2748,16 +2752,16 @@
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="17">
         <v>0.5</v>
       </c>
       <c r="E33" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G33" s="26">
         <v>45216</v>
@@ -2775,10 +2779,10 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="G34" s="26">
         <v>45216</v>
@@ -2790,7 +2794,7 @@
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2803,7 +2807,7 @@
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -2816,16 +2820,16 @@
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="27">
         <v>45216</v>
@@ -2837,7 +2841,7 @@
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2850,7 +2854,7 @@
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -2863,16 +2867,16 @@
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="17">
         <v>3</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="26">
         <v>45216</v>
@@ -2884,16 +2888,16 @@
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="17">
         <v>2</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="26">
         <v>45216</v>
@@ -2905,16 +2909,16 @@
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="17">
         <v>2</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="26">
         <v>45216</v>
@@ -2926,16 +2930,16 @@
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="17">
         <v>3</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="26">
         <v>45216</v>
@@ -2949,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="17">
         <v>0.5</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="26">
         <v>45216</v>
@@ -2970,16 +2974,16 @@
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="17">
         <v>1.5</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G45" s="26">
         <v>45216</v>
@@ -2991,7 +2995,7 @@
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -3004,16 +3008,16 @@
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="17">
         <v>2</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G47" s="28">
         <v>45216</v>
@@ -3025,16 +3029,16 @@
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="17">
         <v>2</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="29">
         <v>45216</v>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4777247-CD67-4D33-9DDB-B6E405DD5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0384A3A7-D47A-45BE-96C0-6C03B7F2FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="118">
   <si>
     <t>Nombre</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>Interfaz de ingreso/retiro monedas</t>
+  </si>
+  <si>
+    <t>Añadir fotos usuario a la bbdd</t>
+  </si>
+  <si>
+    <t>Investigacion imágenes en BBDD</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -449,6 +455,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -647,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -659,9 +680,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -713,6 +731,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,12 +796,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>225426</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13760</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152164</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1422400" cy="857250"/>
+    <xdr:ext cx="6006981" cy="3469688"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="image1.jpg" title="Imagen">
@@ -759,8 +821,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8740776" y="533400"/>
-          <a:ext cx="1422400" cy="857250"/>
+          <a:off x="13264093" y="4385497"/>
+          <a:ext cx="6006981" cy="3469688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,6 +832,372 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>348722</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4705</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082DF292-7CEF-325E-4C11-C97A8357D177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12686536" y="3357928"/>
+          <a:ext cx="568502" cy="564961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310445</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="View alvaro-sanzc's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF308DED-D277-28C3-DE43-D57BFD50AFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12648259" y="2177815"/>
+          <a:ext cx="602075" cy="597936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301038</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>192851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4704</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="View HugoAHerrera's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1811989C-F9ED-13EF-6844-7FF9C7723B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12638852" y="390407"/>
+          <a:ext cx="616185" cy="611696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319852</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4704</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5305</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5" descr="View DanielEscribanoIssacovitch's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CCC2217-A454-F5BD-F11C-164E5FFFB0F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12657666" y="992481"/>
+          <a:ext cx="597371" cy="593268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315148</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>192852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>193504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6" descr="View German0077's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1821964-996B-D4A7-BCD1-C34359377E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12652962" y="2761074"/>
+          <a:ext cx="597371" cy="593319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310445</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7" descr="View tomasmachin's full-sized avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5854FEFC-0D98-DECF-005D-F82E8861C6B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12648259" y="1585147"/>
+          <a:ext cx="602075" cy="597415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -974,25 +1402,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P67"/>
+  <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.87890625" customWidth="1"/>
+    <col min="3" max="3" width="48.64453125" customWidth="1"/>
+    <col min="5" max="5" width="13.87890625" customWidth="1"/>
+    <col min="7" max="7" width="53.3515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1171875" customWidth="1"/>
+    <col min="11" max="11" width="35.41015625" customWidth="1"/>
+    <col min="12" max="12" width="26.87890625" customWidth="1"/>
+    <col min="16" max="16" width="17.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,57 +1455,47 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E1002)</f>
-        <v>116.5</v>
+        <v>125.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>198.76999999999998</v>
+        <v>204.96999999999997</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="J3" s="38"/>
+      <c r="K3" s="39">
         <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64</f>
         <v>48.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2">
-        <f>F7+F13+F20+F43+F45+F46</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="J5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
-        <v>43.820000000000007</v>
-      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="J4" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1092,18 +1510,18 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="2">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
-        <v>36.6</v>
+      <c r="J6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="43">
+        <f>F7+F13+F20+F43+F45+F46</f>
+        <v>30</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1118,18 +1536,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="2">
-        <f>F10+F16+F39+F40+F48+F49+F50</f>
-        <v>27</v>
-      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1144,18 +1557,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2">
-        <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59</f>
-        <v>10.35</v>
-      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1170,11 +1578,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="43">
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
+        <v>43.820000000000007</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1189,13 +1603,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="46"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1210,11 +1621,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1229,8 +1641,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="43">
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1245,8 +1664,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="48"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1261,8 +1682,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="48"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1700,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="43">
+        <f>F10+F16+F39+F40+F48+F49+F50</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1293,8 +1723,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="50"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1309,8 +1741,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="50"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1327,8 +1761,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="43">
+        <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59+F68+F69</f>
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1346,8 +1787,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J19" s="52"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1363,9 +1806,11 @@
       <c r="F20" s="1">
         <v>20</v>
       </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1383,7 +1828,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1399,9 +1844,14 @@
       <c r="F22" s="1">
         <v>5</v>
       </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G22" s="11"/>
+      <c r="J22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1415,9 +1865,9 @@
       <c r="F23" s="1">
         <v>0.3</v>
       </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1435,7 +1885,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1901,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1467,9 +1917,9 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1481,11 +1931,11 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1953,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1519,7 +1969,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1535,9 +1985,9 @@
       <c r="F30" s="1">
         <v>22.17</v>
       </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1551,10 +2001,10 @@
       <c r="F31" s="1">
         <v>1.5</v>
       </c>
-      <c r="G31" s="12"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +2022,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1584,9 +2034,9 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -1602,9 +2052,9 @@
       <c r="F34" s="1">
         <v>14.6</v>
       </c>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -1620,9 +2070,9 @@
       <c r="F35" s="1">
         <v>1.5</v>
       </c>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -1638,9 +2088,9 @@
       <c r="F36" s="1">
         <v>0.5</v>
       </c>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +2100,7 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="53">
         <v>1.5</v>
       </c>
       <c r="F37" s="1">
@@ -1658,7 +2108,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -1674,9 +2124,9 @@
       <c r="F38" s="1">
         <v>0.5</v>
       </c>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -1692,9 +2142,9 @@
       <c r="F39" s="1">
         <v>6.5</v>
       </c>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -1710,27 +2160,27 @@
       <c r="F40" s="1">
         <v>5.5</v>
       </c>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="B41" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -1744,9 +2194,9 @@
       <c r="F43" s="1">
         <v>3</v>
       </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -1760,9 +2210,9 @@
       <c r="F44" s="1">
         <v>6.8</v>
       </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -1780,7 +2230,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +2246,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -1812,9 +2262,9 @@
       <c r="F47" s="1">
         <v>4</v>
       </c>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -1830,9 +2280,9 @@
       <c r="F48" s="1">
         <v>6</v>
       </c>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -1848,9 +2298,9 @@
       <c r="F49" s="1">
         <v>4.5</v>
       </c>
-      <c r="G49" s="30"/>
-    </row>
-    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +2318,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +2336,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +2354,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -1918,11 +2368,11 @@
         <v>40</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="15" t="s">
+      <c r="G53" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B54" s="6" t="s">
         <v>11</v>
       </c>
@@ -1936,9 +2386,9 @@
       <c r="F54" s="1">
         <v>6.5</v>
       </c>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
@@ -1954,9 +2404,9 @@
       <c r="F55" s="1">
         <v>0.1</v>
       </c>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -1966,13 +2416,15 @@
       <c r="D56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
       <c r="F56" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -1986,9 +2438,9 @@
       <c r="F57" s="1">
         <v>3</v>
       </c>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -1998,13 +2450,15 @@
       <c r="D58" s="1">
         <v>41</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
       <c r="F58" s="1">
         <v>1.5</v>
       </c>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2474,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B60" s="6" t="s">
         <v>11</v>
       </c>
@@ -2034,9 +2488,9 @@
       <c r="F60" s="1">
         <v>0.2</v>
       </c>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="4" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2508,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2526,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2090,7 +2544,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>8</v>
       </c>
@@ -2106,9 +2560,9 @@
       <c r="F64" s="1">
         <v>1</v>
       </c>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="6" t="s">
         <v>11</v>
       </c>
@@ -2125,9 +2579,9 @@
       <c r="F65" s="1">
         <v>1</v>
       </c>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="8" t="s">
         <v>14</v>
       </c>
@@ -2141,9 +2595,9 @@
       <c r="F66" s="1">
         <v>3</v>
       </c>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -2155,11 +2609,58 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
+    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G69" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="14">
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="J18:J20"/>
     <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="B41:G42"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2177,39 +2678,39 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.64453125" customWidth="1"/>
+    <col min="2" max="2" width="35.41015625" customWidth="1"/>
+    <col min="3" max="3" width="27.234375" customWidth="1"/>
+    <col min="4" max="4" width="10.234375" customWidth="1"/>
+    <col min="7" max="7" width="17.41015625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>62</v>
       </c>
       <c r="K1" s="2">
@@ -2217,830 +2718,830 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>1.5</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>45202</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="K2" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>1.5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>5</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>40</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>45216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>5</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>1.5</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>3</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>2</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>8</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>5</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>1</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>3</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>1</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <v>1</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>7</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <v>0.5</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>1.5</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <v>1</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="26">
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="16">
         <v>3</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="16">
         <v>2</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <v>2</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <v>3</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="17">
         <v>1</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>0.5</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>1.5</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="A47" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>2</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="27">
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <v>2</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="28">
         <v>45216</v>
       </c>
     </row>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0384A3A7-D47A-45BE-96C0-6C03B7F2FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7B344-C4A6-4FD9-A17E-61204E13605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,6 +719,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,50 +748,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="147" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1455,42 +1455,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E1002)</f>
-        <v>125.5</v>
+        <v>126.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>204.96999999999997</v>
+        <v>205.67</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39">
+      <c r="J3" s="30"/>
+      <c r="K3" s="45">
         <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64</f>
         <v>48.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="J4" s="40" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="J4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1510,10 +1510,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="34">
         <f>F7+F13+F20+F43+F45+F46</f>
         <v>30</v>
       </c>
@@ -1536,8 +1536,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="43"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1557,8 +1557,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="43"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1578,10 +1578,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="34">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
         <v>43.820000000000007</v>
       </c>
@@ -1603,8 +1603,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="43"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
@@ -1621,8 +1621,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="43"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1641,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="34">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
         <v>36.6</v>
       </c>
@@ -1664,8 +1664,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
@@ -1682,8 +1682,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
@@ -1700,10 +1700,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="34">
         <f>F10+F16+F39+F40+F48+F49+F50</f>
         <v>27</v>
       </c>
@@ -1723,8 +1723,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="43"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
@@ -1741,8 +1741,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="43"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
@@ -1761,12 +1761,12 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="34">
         <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59+F68+F69</f>
-        <v>16.55</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1787,8 +1787,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="43"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
@@ -1807,8 +1807,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="43"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
@@ -1845,11 +1845,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
     </row>
     <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
@@ -1861,9 +1861,11 @@
       <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G23" s="11"/>
     </row>
@@ -1897,7 +1899,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -2100,7 +2102,7 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" s="53">
+      <c r="E37" s="33">
         <v>1.5</v>
       </c>
       <c r="F37" s="1">
@@ -2163,22 +2165,22 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
     </row>
     <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
@@ -2647,11 +2649,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J22:L22"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
@@ -2661,6 +2658,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J22:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7B344-C4A6-4FD9-A17E-61204E13605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430015C7-F1B2-4D08-9AC5-AF03D32FC1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -727,15 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,10 +735,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,6 +742,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +765,16 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,23 +1404,23 @@
   </sheetPr>
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="147" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.87890625" customWidth="1"/>
-    <col min="3" max="3" width="48.64453125" customWidth="1"/>
-    <col min="5" max="5" width="13.87890625" customWidth="1"/>
-    <col min="7" max="7" width="53.3515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1171875" customWidth="1"/>
-    <col min="11" max="11" width="35.41015625" customWidth="1"/>
-    <col min="12" max="12" width="26.87890625" customWidth="1"/>
-    <col min="16" max="16" width="17.41015625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1459,43 +1459,43 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>205.67</v>
+        <v>206.17</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="45">
+      <c r="K3" s="40">
         <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64</f>
         <v>48.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="45"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="K4" s="40"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="J5" s="32"/>
-      <c r="K5" s="45"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1510,18 +1510,18 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="43">
         <f>F7+F13+F20+F43+F45+F46</f>
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1536,13 +1536,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="34"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1557,13 +1557,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="34"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1578,17 +1578,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="43">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
         <v>43.820000000000007</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1603,10 +1603,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="45"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1621,12 +1621,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="34"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1641,15 +1641,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="43">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
         <v>36.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1664,10 +1664,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="47"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1682,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J14" s="47"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1700,15 +1700,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="52" t="s">
+      <c r="J15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="43">
         <f>F10+F16+F39+F40+F48+F49+F50</f>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1723,10 +1723,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J16" s="49"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1741,10 +1741,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J17" s="49"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1761,15 +1761,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="43">
         <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59+F68+F69</f>
         <v>17.25</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1787,10 +1787,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="J19" s="51"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1807,10 +1807,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="J20" s="51"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1845,13 +1845,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+    </row>
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2164,25 +2164,25 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B41" s="37" t="s">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="39"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -2245,10 +2245,12 @@
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="F46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2268,7 @@
       </c>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -2284,7 +2286,7 @@
       </c>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2304,7 @@
       </c>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2320,7 +2322,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2338,7 +2340,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2358,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>11</v>
       </c>
@@ -2390,7 +2392,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
@@ -2408,7 +2410,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2428,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2444,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +2462,7 @@
       </c>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2476,7 +2478,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>11</v>
       </c>
@@ -2492,7 +2494,7 @@
       </c>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>8</v>
       </c>
@@ -2510,7 +2512,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2530,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2548,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2566,7 @@
       </c>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>11</v>
       </c>
@@ -2583,7 +2585,7 @@
       </c>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>14</v>
       </c>
@@ -2599,7 +2601,7 @@
       </c>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -2611,7 +2613,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
@@ -2629,7 +2631,7 @@
       </c>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2676,21 +2678,21 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.64453125" customWidth="1"/>
-    <col min="2" max="2" width="35.41015625" customWidth="1"/>
-    <col min="3" max="3" width="27.234375" customWidth="1"/>
-    <col min="4" max="4" width="10.234375" customWidth="1"/>
-    <col min="7" max="7" width="17.41015625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2717,10 +2719,10 @@
       </c>
       <c r="K1" s="2">
         <f>SUM(B2:B1000)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2770,7 +2772,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -2827,7 +2829,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -2861,7 +2863,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -2895,7 +2897,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -2908,7 +2910,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -2921,7 +2923,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -2934,7 +2936,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -2947,7 +2949,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -2960,7 +2962,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -2973,7 +2975,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -2986,7 +2988,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -3041,7 +3043,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3075,7 +3077,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3088,7 +3090,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3122,7 +3124,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3143,7 +3145,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3156,7 +3158,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -3192,7 +3194,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -3205,7 +3207,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -3228,7 +3230,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -3270,7 +3272,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -3304,7 +3306,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -3317,7 +3319,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -3351,7 +3353,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -3364,7 +3366,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -3427,11 +3429,13 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="17">
+        <v>1</v>
+      </c>
       <c r="C43" s="16" t="s">
         <v>104</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -3505,7 +3509,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430015C7-F1B2-4D08-9AC5-AF03D32FC1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F03442-CA5A-49E9-98B5-88F13D7349C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1404,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>206.17</v>
+        <v>207.17</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="30"/>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="K6" s="43">
         <f>F7+F13+F20+F43+F45+F46</f>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2246,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G46" s="7"/>
     </row>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F03442-CA5A-49E9-98B5-88F13D7349C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5B9F21-C4C5-4EBF-8806-0B35DF9D6F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="119">
   <si>
     <t>Nombre</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Investigacion imágenes en BBDD</t>
+  </si>
+  <si>
+    <t>Animación moneda ventana dinero</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +564,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -668,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,6 +790,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1402,22 +1419,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P69"/>
+  <dimension ref="A2:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="48.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.90625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,7 +1463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1455,20 +1472,20 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E1002)</f>
-        <v>126.5</v>
+        <v>145.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>207.17</v>
+        <v>207.86999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="30"/>
       <c r="K3" s="40">
-        <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64</f>
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64+F70</f>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1499,7 @@
       </c>
       <c r="K4" s="40"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="37"/>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -1790,7 +1807,7 @@
       <c r="J19" s="51"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1827,7 @@
       <c r="J20" s="51"/>
       <c r="K20" s="43"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -1828,7 +1845,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1851,7 +1868,7 @@
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1869,7 +1886,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1904,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1897,13 +1914,15 @@
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
@@ -1921,7 +1940,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1931,13 +1950,15 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1976,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1965,13 +1986,15 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F29" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
@@ -1989,7 +2012,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2029,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2047,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2036,9 +2059,9 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2079,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2097,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2115,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2110,7 +2133,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2128,7 +2151,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2169,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2164,7 +2187,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="34" t="s">
         <v>36</v>
       </c>
@@ -2174,7 +2197,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
@@ -2182,7 +2205,7 @@
       <c r="F42" s="38"/>
       <c r="G42" s="39"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -2192,13 +2215,15 @@
       <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
       <c r="F43" s="1">
         <v>3</v>
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -2208,13 +2233,15 @@
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
       <c r="F44" s="1">
         <v>6.8</v>
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2259,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2277,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -2268,7 +2295,7 @@
       </c>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -2286,7 +2313,7 @@
       </c>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2304,7 +2331,7 @@
       </c>
       <c r="G49" s="29"/>
     </row>
-    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2349,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +2367,7 @@
       </c>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -2358,7 +2385,7 @@
       </c>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2376,7 +2403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>11</v>
       </c>
@@ -2392,7 +2419,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
@@ -2410,7 +2437,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -2428,7 +2455,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2438,13 +2465,15 @@
       <c r="D57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1">
+        <v>3</v>
+      </c>
       <c r="F57" s="1">
         <v>3</v>
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2460,9 +2489,9 @@
       <c r="F58" s="1">
         <v>1.5</v>
       </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2507,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>11</v>
       </c>
@@ -2492,7 +2521,7 @@
       <c r="F60" s="1">
         <v>0.2</v>
       </c>
-      <c r="G60" s="11"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
@@ -2562,9 +2591,9 @@
         <v>0.5</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
@@ -2583,7 +2612,7 @@
       <c r="F65" s="1">
         <v>1</v>
       </c>
-      <c r="G65" s="11"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
@@ -2595,11 +2624,13 @@
       <c r="D66" s="1">
         <v>31</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
       <c r="F66" s="1">
         <v>3</v>
       </c>
-      <c r="G66" s="11"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
@@ -2611,7 +2642,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="55"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
@@ -2648,6 +2679,24 @@
         <v>0.7</v>
       </c>
       <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G70" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2678,17 +2727,17 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2751,7 +2800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -2772,7 +2821,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2833,7 +2882,9 @@
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
       <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
@@ -2988,7 +3039,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3009,7 +3060,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -3030,7 +3081,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -3043,7 +3094,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -3064,7 +3115,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3077,7 +3128,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3090,7 +3141,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -3111,7 +3162,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3124,7 +3175,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3145,7 +3196,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3158,7 +3209,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3181,7 +3232,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -3194,7 +3245,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -3207,7 +3258,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -3230,7 +3281,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -3251,7 +3302,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -3272,7 +3323,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -3293,7 +3344,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -3306,7 +3357,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -3319,7 +3370,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -3340,7 +3391,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -3353,7 +3404,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -3366,7 +3417,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -3387,7 +3438,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -3408,7 +3459,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -3429,13 +3480,11 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="17">
-        <v>1</v>
-      </c>
+      <c r="B43" s="54"/>
       <c r="C43" s="16" t="s">
         <v>104</v>
       </c>
@@ -3452,7 +3501,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -3475,7 +3524,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -3496,7 +3545,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -3509,7 +3558,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F03442-CA5A-49E9-98B5-88F13D7349C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656886B8-898F-435D-B523-55C3AD09D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1404,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A2:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>207.17</v>
+        <v>209.26999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="30"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="K9" s="43">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
-        <v>43.820000000000007</v>
+        <v>45.92</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G44" s="11"/>
     </row>
@@ -2388,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="1">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G54" s="11"/>
     </row>
@@ -2406,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="1">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="G55" s="11"/>
     </row>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5B9F21-C4C5-4EBF-8806-0B35DF9D6F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498FD759-746B-42AB-8907-22B664A7C29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="123">
   <si>
     <t>Nombre</t>
   </si>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>Animación moneda ventana dinero</t>
+  </si>
+  <si>
+    <t>DEMO3</t>
+  </si>
+  <si>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Horas trabajadas</t>
+  </si>
+  <si>
+    <t>Horas estimadas</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,24 +556,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,6 +570,48 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -706,34 +742,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,6 +757,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,8 +826,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,10 +1453,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P70"/>
+  <dimension ref="A2:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="65" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1479,35 +1513,35 @@
         <v>207.86999999999998</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="40">
+      <c r="J3" s="23"/>
+      <c r="K3" s="42">
         <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64+F70</f>
         <v>49.2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="J4" s="31" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="J4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="40"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1527,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="45">
         <f>F7+F13+F20+F43+F45+F46</f>
         <v>31.5</v>
       </c>
@@ -1553,8 +1587,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1574,8 +1608,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1595,10 +1629,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="45">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
         <v>43.820000000000007</v>
       </c>
@@ -1620,8 +1654,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="43"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1638,8 +1672,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="43"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1658,10 +1692,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="45">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
         <v>36.6</v>
       </c>
@@ -1681,8 +1715,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1699,8 +1733,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1717,10 +1751,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="45">
         <f>F10+F16+F39+F40+F48+F49+F50</f>
         <v>27</v>
       </c>
@@ -1740,8 +1774,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="43"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1758,8 +1792,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="43"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -1778,10 +1812,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="45">
         <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59+F68+F69</f>
         <v>17.25</v>
       </c>
@@ -1804,8 +1838,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="43"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -1824,8 +1858,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="43"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -1861,12 +1895,12 @@
       <c r="F22" s="1">
         <v>5</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="J22" s="52" t="s">
+      <c r="G22" s="7"/>
+      <c r="J22" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -1884,7 +1918,7 @@
       <c r="F23" s="1">
         <v>0.5</v>
       </c>
-      <c r="G23" s="11"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
@@ -2047,7 +2081,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2059,9 +2093,9 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2113,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +2131,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2115,7 +2149,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2125,7 +2159,7 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="26">
         <v>1.5</v>
       </c>
       <c r="F37" s="1">
@@ -2133,7 +2167,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2185,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2169,7 +2203,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2187,25 +2221,25 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+    <row r="41" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +2257,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>11</v>
       </c>
@@ -2241,7 +2275,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2293,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
@@ -2276,8 +2310,17 @@
         <v>1.5</v>
       </c>
       <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I46" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
@@ -2294,8 +2337,19 @@
         <v>4</v>
       </c>
       <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <f>F52+F51+F61+F62+F63+F64+F70+5.5</f>
+        <v>11.7</v>
+      </c>
+      <c r="K47">
+        <f>E52+E51+E61+E62+E63+E64+E70</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
         <v>15</v>
       </c>
@@ -2311,9 +2365,20 @@
       <c r="F48" s="1">
         <v>6</v>
       </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G48" s="22"/>
+      <c r="I48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <f>F44+F54+F55+F60+F65+15</f>
+        <v>29.6</v>
+      </c>
+      <c r="K48">
+        <f>E44+E54+E55+E60+E65</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2329,9 +2394,20 @@
       <c r="F49" s="1">
         <v>4.5</v>
       </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G49" s="22"/>
+      <c r="I49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <f>F56+F57+F58+F59+F68+F69</f>
+        <v>11.2</v>
+      </c>
+      <c r="K49">
+        <f>E56+E57+E58+E59+E68+E69</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2348,8 +2424,19 @@
         <v>1</v>
       </c>
       <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <f>F48+F49+F50</f>
+        <v>11.5</v>
+      </c>
+      <c r="K50">
+        <f>E48+E49+E50</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2366,8 +2453,19 @@
         <v>0.5</v>
       </c>
       <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <f>F43+F45+F46+5</f>
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <f>E43+E45+E46</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
@@ -2384,8 +2482,19 @@
         <v>1</v>
       </c>
       <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="I52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <f>F66+F47</f>
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <f>E66+E47</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>11</v>
       </c>
@@ -2419,7 +2528,7 @@
       </c>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
@@ -2437,7 +2546,7 @@
       </c>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -2455,7 +2564,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2582,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2491,7 +2600,7 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2507,7 +2616,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2632,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>8</v>
       </c>
@@ -2541,7 +2650,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
@@ -2559,7 +2668,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2577,7 +2686,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>8</v>
       </c>
@@ -2642,7 +2751,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="55"/>
+      <c r="G67" s="28"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
@@ -2698,8 +2807,33 @@
       </c>
       <c r="G70" s="7"/>
     </row>
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="41"/>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B71:G72"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
@@ -2727,8 +2861,8 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2924,7 @@
       <c r="F2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="30">
         <v>45202</v>
       </c>
       <c r="J2" s="12" t="s">
@@ -2804,7 +2938,7 @@
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
         <v>67</v>
       </c>
@@ -2814,10 +2948,10 @@
       <c r="E3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="31">
         <v>45202</v>
       </c>
     </row>
@@ -2837,10 +2971,10 @@
       <c r="E4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="31">
         <v>45202</v>
       </c>
     </row>
@@ -2848,12 +2982,14 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
@@ -2861,7 +2997,7 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
         <v>70</v>
       </c>
@@ -2874,9 +3010,7 @@
       <c r="F6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="23">
-        <v>45216</v>
-      </c>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -2897,7 +3031,7 @@
       <c r="F7" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -2905,12 +3039,14 @@
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="16" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
@@ -2918,7 +3054,7 @@
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="16" t="s">
         <v>42</v>
       </c>
@@ -2931,7 +3067,7 @@
       <c r="F9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -2939,12 +3075,14 @@
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
@@ -2952,12 +3090,14 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
@@ -2965,12 +3105,14 @@
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
@@ -2978,12 +3120,14 @@
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
@@ -2991,12 +3135,14 @@
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
@@ -3004,12 +3150,14 @@
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
@@ -3017,12 +3165,14 @@
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
@@ -3030,12 +3180,14 @@
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="16" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
@@ -3043,7 +3195,7 @@
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="16" t="s">
         <v>83</v>
       </c>
@@ -3053,10 +3205,10 @@
       <c r="E18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3064,7 +3216,7 @@
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="16" t="s">
         <v>26</v>
       </c>
@@ -3074,10 +3226,10 @@
       <c r="E19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3085,12 +3237,14 @@
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
@@ -3098,7 +3252,7 @@
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
@@ -3108,10 +3262,10 @@
       <c r="E21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3119,12 +3273,14 @@
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
@@ -3132,12 +3288,14 @@
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
@@ -3145,7 +3303,7 @@
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
@@ -3158,7 +3316,7 @@
       <c r="F24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3166,12 +3324,14 @@
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="16" t="s">
         <v>88</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
@@ -3179,7 +3339,7 @@
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="16" t="s">
         <v>20</v>
       </c>
@@ -3189,10 +3349,10 @@
       <c r="E26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3200,12 +3360,14 @@
       <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="16" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
@@ -3228,7 +3390,7 @@
       <c r="F28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="31">
         <v>45202</v>
       </c>
     </row>
@@ -3236,12 +3398,14 @@
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="16" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
@@ -3249,12 +3413,14 @@
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="16" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
@@ -3274,10 +3440,10 @@
       <c r="E31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="31">
         <v>45202</v>
       </c>
     </row>
@@ -3285,7 +3451,7 @@
       <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="16" t="s">
         <v>94</v>
       </c>
@@ -3295,10 +3461,10 @@
       <c r="E32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3306,7 +3472,7 @@
       <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="16" t="s">
         <v>95</v>
       </c>
@@ -3316,10 +3482,10 @@
       <c r="E33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3327,7 +3493,7 @@
       <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="16" t="s">
         <v>32</v>
       </c>
@@ -3337,10 +3503,10 @@
       <c r="E34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3348,12 +3514,14 @@
       <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="16" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
@@ -3361,12 +3529,14 @@
       <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="16" t="s">
         <v>97</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
@@ -3374,7 +3544,7 @@
       <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="16" t="s">
         <v>45</v>
       </c>
@@ -3387,7 +3557,7 @@
       <c r="F37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3395,12 +3565,14 @@
       <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="16" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
@@ -3408,12 +3580,14 @@
       <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="16" t="s">
         <v>99</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
@@ -3421,7 +3595,7 @@
       <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="16" t="s">
         <v>100</v>
       </c>
@@ -3434,7 +3608,7 @@
       <c r="F40" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3442,7 +3616,7 @@
       <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="16" t="s">
         <v>102</v>
       </c>
@@ -3455,7 +3629,7 @@
       <c r="F41" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3463,7 +3637,7 @@
       <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="16" t="s">
         <v>103</v>
       </c>
@@ -3476,7 +3650,7 @@
       <c r="F42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3484,7 +3658,7 @@
       <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="54"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="16" t="s">
         <v>104</v>
       </c>
@@ -3497,7 +3671,7 @@
       <c r="F43" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3517,10 +3691,10 @@
       <c r="E44" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3528,7 +3702,7 @@
       <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="16" t="s">
         <v>106</v>
       </c>
@@ -3541,7 +3715,7 @@
       <c r="F45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="34">
         <v>45216</v>
       </c>
     </row>
@@ -3549,12 +3723,14 @@
       <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
@@ -3575,7 +3751,7 @@
       <c r="F47" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="33">
         <v>45216</v>
       </c>
     </row>
@@ -3596,7 +3772,7 @@
       <c r="F48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="33">
         <v>45216</v>
       </c>
     </row>

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,19 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656886B8-898F-435D-B523-55C3AD09D03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2A7C5B-CA75-48BF-825A-4AB72C8D91EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
     <sheet name="Cuentos de usuario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={96BFB097-130F-4FF8-8D67-2AB0D84D7421}</author>
+  </authors>
+  <commentList>
+    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+     (Un comando para instalar y otro para arrancar)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="151">
   <si>
     <t>Nombre</t>
   </si>
@@ -62,10 +83,16 @@
     <t>Total:</t>
   </si>
   <si>
+    <t>DEMO1</t>
+  </si>
+  <si>
     <t>Hugo</t>
   </si>
   <si>
-    <t>DEMO1</t>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
   <si>
     <t>Daniel</t>
@@ -74,12 +101,6 @@
     <t>Tomás</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Álvaro</t>
   </si>
   <si>
@@ -89,24 +110,24 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>BBDD</t>
+  </si>
+  <si>
+    <t>Conexion BBDD</t>
+  </si>
+  <si>
+    <t>Tragaperras</t>
+  </si>
+  <si>
+    <t>Konguito run</t>
+  </si>
+  <si>
+    <t>Ingresar/retirar dinero</t>
+  </si>
+  <si>
     <t>RECORDAR SUMAR ARRIBA LAS HORAS REALES HECHAS</t>
   </si>
   <si>
-    <t>BBDD</t>
-  </si>
-  <si>
-    <t>Conexion BBDD</t>
-  </si>
-  <si>
-    <t>Tragaperras</t>
-  </si>
-  <si>
-    <t>Konguito run</t>
-  </si>
-  <si>
-    <t>Ingresar/retirar dinero</t>
-  </si>
-  <si>
     <t>Inicio de sesion usuario registrado</t>
   </si>
   <si>
@@ -170,18 +191,27 @@
     <t>Diseño de Moneda</t>
   </si>
   <si>
+    <t>Demo 2</t>
+  </si>
+  <si>
+    <t>Horas trabajadas</t>
+  </si>
+  <si>
+    <t>Horas estimadas</t>
+  </si>
+  <si>
     <t>Contenidos excel</t>
   </si>
   <si>
     <t>Interfaz de otros juegos</t>
   </si>
   <si>
+    <t>IA Imagenes</t>
+  </si>
+  <si>
     <t>Suspendida</t>
   </si>
   <si>
-    <t>IA Imagenes</t>
-  </si>
-  <si>
     <t>Interfaz de indices de juegos</t>
   </si>
   <si>
@@ -203,6 +233,108 @@
     <t>Página no encontrada</t>
   </si>
   <si>
+    <t>Animación tragaperras</t>
+  </si>
+  <si>
+    <t>Cartel Tragaperras</t>
+  </si>
+  <si>
+    <t>Diseño de carteles: bingo, plinko, tragaperras</t>
+  </si>
+  <si>
+    <t>Implementar en carta más alta saldo cuenta</t>
+  </si>
+  <si>
+    <t>Poner la foto en la BBDD</t>
+  </si>
+  <si>
+    <t>Interfaz Funciones Admin</t>
+  </si>
+  <si>
+    <t>Añadir fotos usuario a la bbdd</t>
+  </si>
+  <si>
+    <t>Investigacion imágenes en BBDD</t>
+  </si>
+  <si>
+    <t>Animación moneda ventana dinero</t>
+  </si>
+  <si>
+    <t>DEMO3</t>
+  </si>
+  <si>
+    <t>Demo 3</t>
+  </si>
+  <si>
+    <t>Refactorizar código konguitorun</t>
+  </si>
+  <si>
+    <t>Integrar saldo Tragaperras</t>
+  </si>
+  <si>
+    <t>Integrar saldo Dados Craps</t>
+  </si>
+  <si>
+    <t>Integrar saldo Blackjack</t>
+  </si>
+  <si>
+    <t>Integrar ventana de avatares y terminarla</t>
+  </si>
+  <si>
+    <t>Musica</t>
+  </si>
+  <si>
+    <t>Mejora Toolbar</t>
+  </si>
+  <si>
+    <t>Tablas nueva Gashapon</t>
+  </si>
+  <si>
+    <t>Confirmación Email</t>
+  </si>
+  <si>
+    <t>Refactorizar codigo ventana juegos extra</t>
+  </si>
+  <si>
+    <t>Refactorizar, Alertas y Mejora visual registro usuario</t>
+  </si>
+  <si>
+    <t>Refactorizar y Alertas registro admin</t>
+  </si>
+  <si>
+    <t>Refactorizar y Alertas inicio</t>
+  </si>
+  <si>
+    <t>Funciones Admin</t>
+  </si>
+  <si>
+    <t>Mejora visual Blackjack</t>
+  </si>
+  <si>
+    <t>Refactorizar CompraMonedas</t>
+  </si>
+  <si>
+    <t>Refactorizar Tragaperras</t>
+  </si>
+  <si>
+    <t>refactorizar codigo carta mas alta</t>
+  </si>
+  <si>
+    <t>Cambiar alertas juego konguitorun</t>
+  </si>
+  <si>
+    <t>Hacer un contador multijugador (investigación)</t>
+  </si>
+  <si>
+    <t>Hacer cartel carta más alta</t>
+  </si>
+  <si>
+    <t>Hacer cartel ruleta</t>
+  </si>
+  <si>
+    <t>Implementar terminos y condiciones</t>
+  </si>
+  <si>
     <t>Nº historia usuario</t>
   </si>
   <si>
@@ -248,6 +380,9 @@
     <t>Recuperacion de cuenta</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
     <t>IA comparar imagenes</t>
   </si>
   <si>
@@ -260,12 +395,12 @@
     <t>Agregar/retirar usuarios</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Rankings</t>
   </si>
   <si>
+    <t>Baja</t>
+  </si>
+  <si>
     <t>Desafios y recompensas</t>
   </si>
   <si>
@@ -275,9 +410,6 @@
     <t>Idiomas</t>
   </si>
   <si>
-    <t>Musica</t>
-  </si>
-  <si>
     <t>Matchmaking</t>
   </si>
   <si>
@@ -341,9 +473,6 @@
     <t>Interfaz de ajustes</t>
   </si>
   <si>
-    <t>Baja</t>
-  </si>
-  <si>
     <t>Ventana de terminos y condiciones</t>
   </si>
   <si>
@@ -365,31 +494,22 @@
     <t>Toolbar</t>
   </si>
   <si>
-    <t>Animación tragaperras</t>
-  </si>
-  <si>
-    <t>Cartel Tragaperras</t>
-  </si>
-  <si>
-    <t>Diseño de carteles: bingo, plinko, tragaperras</t>
-  </si>
-  <si>
-    <t>Implementar en carta más alta saldo cuenta</t>
-  </si>
-  <si>
-    <t>Poner la foto en la BBDD</t>
-  </si>
-  <si>
-    <t>Interfaz Funciones Admin</t>
-  </si>
-  <si>
     <t>Interfaz de ingreso/retiro monedas</t>
   </si>
   <si>
-    <t>Añadir fotos usuario a la bbdd</t>
-  </si>
-  <si>
-    <t>Investigacion imágenes en BBDD</t>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Mejora Compra Monedas Visual</t>
+  </si>
+  <si>
+    <t>Arrancar la aplicación por cmd en una máquina vacía</t>
+  </si>
+  <si>
+    <t>;Mejora Interfaz venta/compra monedas</t>
+  </si>
+  <si>
+    <t>Demo 1</t>
   </si>
 </sst>
 </file>
@@ -399,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -418,10 +538,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -471,8 +587,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,30 +670,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -608,48 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -664,11 +787,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,97 +831,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,6 +1337,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Álvaro Sanz Cortés" id="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" userId="S::alvaro.sanzcortes@usp.ceu.es::3d7bb3fb-3dc1-4592-8414-b5a9d69b5279" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1397,27 +1539,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C97" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+    <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P69"/>
+  <dimension ref="A2:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="77" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.88671875" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1454,67 +1604,67 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E1002)</f>
-        <v>126.5</v>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
+        <v>162.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>209.26999999999998</v>
+        <v>209.36999999999998</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="40">
-        <f>F6+F12+F22+F21+F51+F52+F53+F61+F62+F63+F64</f>
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="42">
+        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71</f>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="J4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="J4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="40"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="43">
-        <f>F7+F13+F20+F43+F45+F46</f>
+      <c r="J6" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="44">
+        <f>F7+F13+F20+F43+F45+F47+F46</f>
         <v>31.5</v>
       </c>
       <c r="L6" s="2"/>
@@ -1523,42 +1673,42 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1568,22 +1718,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="43">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F54+F55+F60+F65</f>
-        <v>45.92</v>
+      <c r="J9" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="44">
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66</f>
+        <v>43.820000000000007</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1593,10 +1743,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -1604,17 +1754,17 @@
       </c>
       <c r="G10" s="7"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="43"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -1622,19 +1772,19 @@
       </c>
       <c r="G11" s="7"/>
       <c r="J11" s="45"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="44"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -1644,67 +1794,67 @@
       <c r="J12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="43">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F47+F66+F67</f>
+      <c r="K12" s="44">
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68</f>
         <v>36.6</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="43"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="43"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="43">
-        <f>F10+F16+F39+F40+F48+F49+F50</f>
+      <c r="K15" s="44">
+        <f>F10+F16+F39+F40+F49+F50+F51</f>
         <v>27</v>
       </c>
     </row>
@@ -1713,46 +1863,46 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="43"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="43"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1761,24 +1911,24 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="43">
-        <f>F11+F23+F25+F27+F29+F31+F56+F57+F58+F59+F68+F69</f>
+      <c r="K18" s="44">
+        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70</f>
         <v>17.25</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>C18</f>
         <v>Conexion BBDD</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1787,15 +1937,15 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J19" s="48"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
         <v>25</v>
@@ -1806,16 +1956,16 @@
       <c r="F20" s="1">
         <v>20</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="43"/>
-    </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G20" s="52"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>27</v>
@@ -1828,12 +1978,12 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
@@ -1844,19 +1994,19 @@
       <c r="F22" s="1">
         <v>5</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="J22" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-    </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G22" s="7"/>
+      <c r="J22" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -1867,11 +2017,11 @@
       <c r="F23" s="1">
         <v>0.5</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
@@ -1887,7 +2037,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -1897,15 +2047,17 @@
       <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>24</v>
@@ -1921,7 +2073,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1931,15 +2083,17 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>25</v>
@@ -1955,7 +2109,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1965,15 +2119,17 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F29" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>26</v>
@@ -1989,7 +2145,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2162,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2180,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2036,9 +2192,9 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2056,7 +2212,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2074,7 +2230,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2248,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2102,7 +2258,7 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="26">
         <v>1.5</v>
       </c>
       <c r="F37" s="1">
@@ -2110,7 +2266,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2128,7 +2284,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2302,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2164,65 +2320,69 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="39"/>
-    </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
       <c r="F43" s="1">
         <v>3</v>
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
       <c r="F44" s="1">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
         <v>0.5</v>
@@ -2232,425 +2392,1028 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="1">
+        <v>47</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D47" s="1">
         <v>42</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D48" s="1">
         <v>23</v>
-      </c>
-      <c r="E47" s="1">
-        <v>8</v>
-      </c>
-      <c r="F47" s="1">
-        <v>4</v>
-      </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
       <c r="F48" s="1">
-        <v>6</v>
-      </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="1">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E49" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F49" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="I49" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="I50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50">
+        <f>F6+F12+F21+F22-5.5</f>
+        <v>37.5</v>
+      </c>
+      <c r="K50">
+        <f>E6+E12+E21+E22</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D51" s="1">
         <v>43</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>0.5</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F51" s="1">
         <v>1</v>
       </c>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="G51" s="7"/>
+      <c r="I51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="1">
+      <c r="J51">
+        <f>F14+F24+F26+F28+F30+F8-15.17</f>
+        <v>12.550000000000002</v>
+      </c>
+      <c r="K51">
+        <f>E8+E19+E24+E26+E28+E30</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1">
         <v>0</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>0.5</v>
       </c>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="G52" s="7"/>
+      <c r="I52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52">
+        <f>F11+F17+F18+F23+F25+F27+F29+F31-0.2-1</f>
+        <v>7.3500000000000014</v>
+      </c>
+      <c r="K52">
+        <f>E17+E18+E23+E25+E27+E29+E31</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="1">
         <v>36</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="G53" s="7"/>
+      <c r="I53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <f>F40+F39+F16+F10</f>
+        <v>15.5</v>
+      </c>
+      <c r="K53">
+        <f>E39+E16+E10+E40</f>
         <v>5</v>
       </c>
-      <c r="E53" s="1">
+    </row>
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
         <v>40</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1">
-        <v>3</v>
-      </c>
-      <c r="F54" s="1">
-        <v>7</v>
-      </c>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+      <c r="G54" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <f>F7+F13+F20-5</f>
+        <v>21.5</v>
+      </c>
+      <c r="K54">
+        <f>E7+E13+E20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="1">
-        <v>39</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1">
         <v>3</v>
       </c>
       <c r="F55" s="1">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>16</v>
+      <c r="I55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38</f>
+        <v>29.6</v>
+      </c>
+      <c r="K55">
+        <f>SUM(E32:E38)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="D56" s="1">
+        <v>39</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="1">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I58" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="D59" s="1">
+        <v>41</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>11</v>
+      <c r="F59" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="I59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59">
+        <f>F53+F52+F62+F63+F64+F65+F71+5.5</f>
+        <v>11.7</v>
+      </c>
+      <c r="K59">
+        <f>E53+E52+E62+E63+E64+E65+E71</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="I60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60">
+        <f>F44+F55+F56+F61+F66+15</f>
+        <v>29.6</v>
+      </c>
+      <c r="K60">
+        <f>E44+E55+E56+E61+E66</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
         <v>0.5</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F61" s="1">
         <v>0.2</v>
       </c>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="G61" s="7"/>
+      <c r="I61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <f>F57+F58+F59+F60+F69+F70</f>
+        <v>11.2</v>
+      </c>
+      <c r="K61">
+        <f>E57+E58+E59+E60+E69+E70</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1">
         <v>0</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F62" s="1">
         <v>0.5</v>
       </c>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="G62" s="7"/>
+      <c r="I62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <f>F49+F50+F51</f>
+        <v>11.5</v>
+      </c>
+      <c r="K62">
+        <f>E49+E50+E51</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F63" s="1">
         <v>1</v>
       </c>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="G63" s="7"/>
+      <c r="I63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <f>F43+F45+F47+5</f>
+        <v>9.5</v>
+      </c>
+      <c r="K63">
+        <f>E43+E45+E47</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
         <v>2</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F64" s="1">
         <v>1.5</v>
       </c>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <f>C64</f>
-        <v>Implementar en carta más alta saldo cuenta</v>
+      <c r="G64" s="7"/>
+      <c r="I64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <f>F67+F48</f>
+        <v>7</v>
+      </c>
+      <c r="K64">
+        <f>E67+E48</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1">
         <v>0.5</v>
       </c>
       <c r="F65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>C65</f>
+        <v>Implementar en carta más alta saldo cuenta</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="1">
         <v>1</v>
       </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="1">
-        <v>31</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1">
-        <v>3</v>
-      </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="D67" s="1">
+        <v>31</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44</v>
       </c>
       <c r="E68" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F68" s="1">
-        <v>2</v>
-      </c>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="I72" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="I73" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="35"/>
+      <c r="I74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="1">
+      <c r="J74">
+        <f>SUM(F91,F80)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="I75" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="I76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="I77" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35">
+        <v>3</v>
+      </c>
+      <c r="F80" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="35">
         <v>1</v>
       </c>
-      <c r="F69" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G69" s="7"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+    </row>
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+    </row>
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" s="38">
+        <v>44</v>
+      </c>
+      <c r="E87" s="38">
+        <v>3</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="35">
+        <v>1</v>
+      </c>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="35">
+        <v>2</v>
+      </c>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="35">
+        <v>4</v>
+      </c>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+    </row>
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="35">
+        <v>1</v>
+      </c>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+    </row>
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="35">
+        <v>1</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="35">
+        <v>2</v>
+      </c>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+    </row>
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
@@ -2668,6 +3431,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2676,50 +3440,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2">
         <f>SUM(B2:B1000)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,49 +3494,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D2" s="16">
         <v>1.5</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="18">
+        <v>102</v>
+      </c>
+      <c r="G2" s="29">
         <v>45202</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="K2" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D3" s="16">
         <v>1.5</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="21">
+        <v>101</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="30">
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -2780,18 +3544,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D4" s="16">
         <v>5</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="21">
+        <v>101</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="30">
         <v>45202</v>
       </c>
     </row>
@@ -2799,12 +3563,14 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
@@ -2812,41 +3578,41 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D6" s="16">
         <v>40</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="23">
-        <v>45216</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
       <c r="C7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="16">
         <v>5</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="25">
+        <v>110</v>
+      </c>
+      <c r="G7" s="33">
         <v>45216</v>
       </c>
     </row>
@@ -2854,12 +3620,14 @@
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="16" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
@@ -2867,7 +3635,9 @@
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
       <c r="C9" s="16" t="s">
         <v>42</v>
       </c>
@@ -2875,12 +3645,12 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="25">
+        <v>102</v>
+      </c>
+      <c r="G9" s="33">
         <v>45216</v>
       </c>
     </row>
@@ -2888,12 +3658,14 @@
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="16" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
@@ -2901,12 +3673,14 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
@@ -2914,12 +3688,14 @@
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
@@ -2927,12 +3703,14 @@
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
@@ -2940,12 +3718,14 @@
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
@@ -2953,12 +3733,14 @@
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
@@ -2966,12 +3748,14 @@
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
@@ -2979,41 +3763,43 @@
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="16" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="16" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D18" s="16">
         <v>3</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="25">
+        <v>101</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="16" t="s">
         <v>26</v>
       </c>
@@ -3021,33 +3807,37 @@
         <v>3</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="25">
+        <v>101</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
       <c r="C20" s="16" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
@@ -3055,110 +3845,120 @@
         <v>2</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="25">
+        <v>101</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="16" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D24" s="16">
         <v>8</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="25">
+        <v>102</v>
+      </c>
+      <c r="G24" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="16" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="16">
         <v>5</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="25">
+        <v>101</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="16" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3166,48 +3966,52 @@
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D28" s="16">
         <v>3</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="21">
+        <v>110</v>
+      </c>
+      <c r="G28" s="30">
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="16" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="16" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -3215,68 +4019,68 @@
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="21">
+        <v>101</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="30">
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="16" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D32" s="16">
         <v>7</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="25">
+        <v>101</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="16" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="D33" s="16">
         <v>0.5</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="25">
+        <v>101</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="16" t="s">
         <v>32</v>
       </c>
@@ -3284,152 +4088,164 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="25">
+        <v>101</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="16" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="16" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="17">
+        <v>1</v>
+      </c>
       <c r="C37" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D37" s="16">
         <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="26">
+        <v>102</v>
+      </c>
+      <c r="G37" s="31">
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="16" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="16" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="16" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D40" s="16">
         <v>3</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="25">
+        <v>110</v>
+      </c>
+      <c r="G40" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="16" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D41" s="16">
         <v>2</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="25">
+        <v>102</v>
+      </c>
+      <c r="G41" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
       <c r="C42" s="16" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="25">
+        <v>110</v>
+      </c>
+      <c r="G42" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -3437,22 +4253,22 @@
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D43" s="16">
         <v>3</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="25">
+        <v>110</v>
+      </c>
+      <c r="G43" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -3460,73 +4276,75 @@
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D44" s="16">
         <v>0.5</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" s="25">
+        <v>113</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="16" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D45" s="16">
         <v>1.5</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="25">
+        <v>110</v>
+      </c>
+      <c r="G45" s="33">
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="16" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="27">
+        <v>110</v>
+      </c>
+      <c r="G47" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3534,24 +4352,300 @@
       <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
       <c r="C48" s="16" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D48" s="16">
         <v>2</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="28">
+        <v>109</v>
+      </c>
+      <c r="G48" s="32">
         <v>45216</v>
       </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="C49" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
+    <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <xsd:import namespace="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2A7C5B-CA75-48BF-825A-4AB72C8D91EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2315FD10-AFF9-46A4-B618-F17A16A9AC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="151">
   <si>
     <t>Nombre</t>
   </si>
@@ -519,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -592,12 +592,6 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -815,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -881,6 +875,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -908,9 +904,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,23 +1547,23 @@
   </sheetPr>
   <dimension ref="A2:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="77" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="D58" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.81640625" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.8203125" customWidth="1"/>
+    <col min="3" max="3" width="48.52734375" customWidth="1"/>
+    <col min="5" max="5" width="13.8203125" customWidth="1"/>
+    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.17578125" customWidth="1"/>
+    <col min="11" max="11" width="35.46875" customWidth="1"/>
+    <col min="12" max="12" width="26.8203125" customWidth="1"/>
+    <col min="16" max="16" width="17.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1605,47 +1598,47 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>162.5</v>
+        <v>174.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>209.36999999999998</v>
+        <v>215.36999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="42">
+      <c r="K3" s="44">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71</f>
         <v>49.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="J4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="42"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1660,10 +1653,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="46">
         <f>F7+F13+F20+F43+F45+F47+F46</f>
         <v>31.5</v>
       </c>
@@ -1671,7 +1664,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1686,13 +1679,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1707,13 +1700,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1728,17 +1721,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="46">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66</f>
         <v>43.820000000000007</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1753,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="44"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="47"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1771,12 +1764,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="44"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="46"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1791,15 +1784,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="46">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68</f>
         <v>36.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1814,10 +1807,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="48"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1832,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="48"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1850,15 +1843,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="46">
         <f>F10+F16+F39+F40+F49+F50+F51</f>
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1873,10 +1866,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="49"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1891,10 +1884,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="49"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1911,15 +1904,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="44">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70</f>
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="46">
+        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81</f>
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1937,10 +1930,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J19" s="50"/>
+      <c r="K19" s="46"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1956,11 +1949,11 @@
       <c r="F20" s="1">
         <v>20</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="44"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G20" s="42"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1978,7 +1971,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1995,13 +1988,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2019,7 +2012,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2037,7 +2030,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2055,7 +2048,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2073,7 +2066,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2091,7 +2084,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2109,7 +2102,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2127,7 +2120,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2145,7 +2138,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2162,7 +2155,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2173,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2187,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2212,7 +2205,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2230,7 +2223,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2248,7 +2241,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2259,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2277,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2295,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2320,25 +2313,25 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="B41" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2356,7 +2349,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2374,7 +2367,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2392,7 +2385,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2410,7 +2403,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2428,7 +2421,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2446,7 +2439,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2502,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -2531,7 +2524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2560,7 +2553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2589,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2618,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2645,7 +2638,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2656,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2681,7 +2674,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2708,7 +2701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2737,7 +2730,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2766,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -2793,7 +2786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -2822,7 +2815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2844,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -2880,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -2898,7 +2891,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -2917,7 +2910,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -2935,7 +2928,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -2953,7 +2946,7 @@
       </c>
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2971,7 +2964,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +2982,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3007,15 +3000,15 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="41" t="s">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
       <c r="I72" s="34" t="s">
         <v>68</v>
       </c>
@@ -3026,18 +3019,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3077,7 +3070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3094,7 +3087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3111,7 +3104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3124,8 +3117,19 @@
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
-    </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78">
+        <f>F79+F81+F82</f>
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <f>E79+E82+E81</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3133,11 +3137,15 @@
         <v>74</v>
       </c>
       <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
+      <c r="E79" s="35">
+        <v>6</v>
+      </c>
+      <c r="F79" s="35">
+        <v>4</v>
+      </c>
       <c r="G79" s="35"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +3161,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3161,11 +3169,13 @@
         <v>76</v>
       </c>
       <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
+      <c r="E81" s="35">
+        <v>3</v>
+      </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3175,11 +3185,15 @@
       <c r="D82" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
+      <c r="E82" s="35">
+        <v>3</v>
+      </c>
+      <c r="F82" s="35">
+        <v>2</v>
+      </c>
       <c r="G82" s="35"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3195,7 +3209,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3209,7 +3223,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3223,7 +3237,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3251,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="37" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3267,7 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3265,7 +3279,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3281,7 +3295,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3297,7 +3311,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3311,7 +3325,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3341,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3343,7 +3357,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3359,7 +3373,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -3375,8 +3389,8 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="50" t="s">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C96" s="38" t="s">
@@ -3387,11 +3401,11 @@
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="38" t="s">
         <v>148</v>
       </c>
       <c r="D97" s="38"/>
@@ -3399,7 +3413,7 @@
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
@@ -3446,17 +3460,17 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.52734375" customWidth="1"/>
+    <col min="2" max="2" width="35.46875" customWidth="1"/>
+    <col min="3" max="3" width="27.17578125" customWidth="1"/>
+    <col min="4" max="4" width="10.17578125" customWidth="1"/>
+    <col min="7" max="7" width="17.46875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>92</v>
       </c>
@@ -3486,7 +3500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3515,7 +3529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3536,7 +3550,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3559,7 +3573,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3574,7 +3588,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3593,7 +3607,7 @@
       </c>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3616,7 +3630,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -3631,7 +3645,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -3654,7 +3668,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -3669,7 +3683,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -3684,7 +3698,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -3699,7 +3713,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -3714,7 +3728,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -3729,7 +3743,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -3744,7 +3758,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -3759,7 +3773,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -3774,7 +3788,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3795,7 +3809,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -3816,7 +3830,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -3833,7 +3847,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -3854,7 +3868,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3869,7 +3883,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3884,7 +3898,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -3905,7 +3919,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3920,7 +3934,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3943,7 +3957,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3958,7 +3972,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3981,7 +3995,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -3996,7 +4010,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -4011,7 +4025,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -4034,7 +4048,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -4055,7 +4069,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -4097,7 +4111,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -4112,7 +4126,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -4127,7 +4141,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -4150,7 +4164,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4165,7 +4179,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4180,7 +4194,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4201,7 +4215,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4222,7 +4236,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4245,7 +4259,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4268,7 +4282,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4291,7 +4305,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4312,7 +4326,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4327,7 +4341,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4348,7 +4362,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -4371,7 +4385,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="39"/>
       <c r="C49" s="40"/>
     </row>
@@ -4381,6 +4395,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4589,24 +4620,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4623,29 +4662,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2315FD10-AFF9-46A4-B618-F17A16A9AC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C9112-AF89-4DFE-90BE-49C9521FBA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4705</xdr:colOff>
+      <xdr:colOff>11055</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9408</xdr:rowOff>
     </xdr:to>
@@ -1092,9 +1092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4704</xdr:colOff>
+      <xdr:colOff>11054</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>14325</xdr:rowOff>
+      <xdr:rowOff>7975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1153,9 +1153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4704</xdr:colOff>
+      <xdr:colOff>11054</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5305</xdr:rowOff>
+      <xdr:rowOff>11655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1547,23 +1547,23 @@
   </sheetPr>
   <dimension ref="A2:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.8203125" customWidth="1"/>
-    <col min="3" max="3" width="48.52734375" customWidth="1"/>
-    <col min="5" max="5" width="13.8203125" customWidth="1"/>
-    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.17578125" customWidth="1"/>
-    <col min="11" max="11" width="35.46875" customWidth="1"/>
-    <col min="12" max="12" width="26.8203125" customWidth="1"/>
-    <col min="16" max="16" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>215.36999999999998</v>
+        <v>218.36999999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1611,7 +1611,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -1638,7 +1638,7 @@
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="46"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="46"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="46"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="46"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="J17" s="49"/>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
     </row>
-    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="43" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
     </row>
-    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -2331,7 +2331,7 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
     </row>
-    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="43" t="s">
         <v>67</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
       <c r="D73" s="43"/>
@@ -3030,7 +3030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3043,8 +3043,10 @@
       <c r="E74" s="1">
         <v>2</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="35"/>
+      <c r="F74" s="1">
+        <v>3</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="I74" s="6" t="s">
         <v>13</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3145,7 +3147,7 @@
       </c>
       <c r="G79" s="35"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3161,7 +3163,7 @@
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3175,7 +3177,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3193,7 +3195,7 @@
       </c>
       <c r="G82" s="35"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3211,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3223,7 +3225,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3239,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3251,7 +3253,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="37" t="s">
         <v>14</v>
       </c>
@@ -3267,7 +3269,7 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3279,7 +3281,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3297,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3311,7 +3313,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3325,7 +3327,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3343,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3357,7 +3359,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3373,7 +3375,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3391,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="41" t="s">
         <v>15</v>
       </c>
@@ -3401,7 +3403,7 @@
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="38" t="s">
         <v>146</v>
       </c>
@@ -3413,7 +3415,7 @@
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
@@ -3460,17 +3462,17 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" customWidth="1"/>
-    <col min="2" max="2" width="35.46875" customWidth="1"/>
-    <col min="3" max="3" width="27.17578125" customWidth="1"/>
-    <col min="4" max="4" width="10.17578125" customWidth="1"/>
-    <col min="7" max="7" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>92</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3529,7 +3531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3588,7 +3590,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3607,7 +3609,7 @@
       </c>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -3645,7 +3647,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -3668,7 +3670,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -3683,7 +3685,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -3698,7 +3700,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -3713,7 +3715,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -3728,7 +3730,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -3743,7 +3745,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -3758,7 +3760,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -3773,7 +3775,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -3788,7 +3790,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3809,7 +3811,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -3830,7 +3832,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -3847,7 +3849,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3883,7 +3885,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3898,7 +3900,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3934,7 +3936,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3972,7 +3974,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -4010,7 +4012,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -4025,7 +4027,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -4090,7 +4092,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -4126,7 +4128,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -4141,7 +4143,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -4164,7 +4166,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4179,7 +4181,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4194,7 +4196,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4236,7 +4238,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4305,7 +4307,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4341,7 +4343,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="C49" s="40"/>
     </row>
@@ -4395,23 +4397,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4620,32 +4605,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4662,4 +4639,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C9112-AF89-4DFE-90BE-49C9521FBA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8074C322-2AF9-40C2-AC7D-ABC1796F58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1547,8 +1547,8 @@
   </sheetPr>
   <dimension ref="A2:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>218.36999999999998</v>
+        <v>218.67</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -3029,6 +3029,10 @@
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="J73">
+        <f>F74+F83+F92+F93+F94+F95</f>
+        <v>3.3</v>
+      </c>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
@@ -3208,8 +3212,10 @@
       <c r="E83" s="35">
         <v>1</v>
       </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
+      <c r="F83" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
@@ -4397,6 +4403,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4605,24 +4628,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4639,29 +4670,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8074C322-2AF9-40C2-AC7D-ABC1796F58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD692EF-4E40-4665-904F-9BCE56425983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1547,8 +1547,8 @@
   </sheetPr>
   <dimension ref="A2:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>218.67</v>
+        <v>220.67</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="J73">
         <f>F74+F83+F92+F93+F94+F95</f>
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3346,8 +3346,10 @@
       <c r="E92" s="35">
         <v>4</v>
       </c>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
+      <c r="F92" s="35">
+        <v>2</v>
+      </c>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
@@ -4403,23 +4405,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4628,32 +4613,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4670,4 +4647,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD692EF-4E40-4665-904F-9BCE56425983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF660F1-245B-4873-9FCF-86821D1AD3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={96BFB097-130F-4FF8-8D67-2AB0D84D7421}</author>
+    <author>tc={DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}</author>
   </authors>
   <commentList>
-    <comment ref="C97" authorId="0" shapeId="0" xr:uid="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+     (Un comando para instalar y otro para arrancar)</t>
+      </text>
+    </comment>
+    <comment ref="C99" authorId="1" shapeId="0" xr:uid="{DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="153">
   <si>
     <t>Nombre</t>
   </si>
@@ -317,9 +326,6 @@
     <t>Refactorizar Tragaperras</t>
   </si>
   <si>
-    <t>refactorizar codigo carta mas alta</t>
-  </si>
-  <si>
     <t>Cambiar alertas juego konguitorun</t>
   </si>
   <si>
@@ -497,9 +503,6 @@
     <t>Interfaz de ingreso/retiro monedas</t>
   </si>
   <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Mejora Compra Monedas Visual</t>
   </si>
   <si>
@@ -510,6 +513,18 @@
   </si>
   <si>
     <t>Demo 1</t>
+  </si>
+  <si>
+    <t>Desplegar aplicación</t>
+  </si>
+  <si>
+    <t>NombreTrabajador</t>
+  </si>
+  <si>
+    <t>Refactorizar codigo carta mas alta</t>
+  </si>
+  <si>
+    <t>Refactor blackjack y dados craps</t>
   </si>
 </sst>
 </file>
@@ -519,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -594,8 +609,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,12 +681,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -838,7 +853,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,26 +861,26 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -876,7 +890,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,6 +918,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,7 +1549,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C97" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+  <threadedComment ref="C98" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+    <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
+  </threadedComment>
+  <threadedComment ref="C99" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{DF52AA5C-B8EF-4813-B8A4-9D3D22ABB9F8}">
     <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
   </threadedComment>
 </ThreadedComments>
@@ -1545,10 +1563,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P98"/>
+  <dimension ref="A2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1597,43 +1615,43 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>174.5</v>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E995)</f>
+        <v>175.7</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>220.67</v>
+        <v>222.67</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="44">
+      <c r="J3" s="22"/>
+      <c r="K3" s="43">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71</f>
         <v>49.2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="J4" s="24" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="44"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -1653,10 +1671,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="45">
         <f>F7+F13+F20+F43+F45+F47+F46</f>
         <v>31.5</v>
       </c>
@@ -1679,8 +1697,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="46"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -1700,8 +1718,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -1721,10 +1739,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="45">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66</f>
         <v>43.820000000000007</v>
       </c>
@@ -1746,8 +1764,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -1764,8 +1782,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -1784,10 +1802,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="45">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68</f>
         <v>36.6</v>
       </c>
@@ -1807,8 +1825,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="45"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -1825,8 +1843,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1843,10 +1861,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="45">
         <f>F10+F16+F39+F40+F49+F50+F51</f>
         <v>27</v>
       </c>
@@ -1866,8 +1884,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="46"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -1884,8 +1902,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="46"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -1904,10 +1922,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="45">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+F79+F82+F81</f>
         <v>23.25</v>
       </c>
@@ -1930,8 +1948,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -1949,9 +1967,9 @@
       <c r="F20" s="1">
         <v>20</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="46"/>
+      <c r="G20" s="41"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -1988,11 +2006,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2064,7 +2082,7 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
@@ -2082,7 +2100,7 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
@@ -2136,7 +2154,7 @@
       <c r="F30" s="1">
         <v>22.17</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -2152,7 +2170,7 @@
       <c r="F31" s="1">
         <v>1.5</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
@@ -2185,7 +2203,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="27"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
@@ -2203,7 +2221,7 @@
       <c r="F34" s="1">
         <v>14.6</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
@@ -2221,7 +2239,7 @@
       <c r="F35" s="1">
         <v>1.5</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
@@ -2239,7 +2257,7 @@
       <c r="F36" s="1">
         <v>0.5</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
@@ -2251,7 +2269,7 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>1.5</v>
       </c>
       <c r="F37" s="1">
@@ -2275,7 +2293,7 @@
       <c r="F38" s="1">
         <v>0.5</v>
       </c>
-      <c r="G38" s="11"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
@@ -2293,7 +2311,7 @@
       <c r="F39" s="1">
         <v>6.5</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
@@ -2311,25 +2329,25 @@
       <c r="F40" s="1">
         <v>5.5</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
     </row>
     <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -2347,7 +2365,7 @@
       <c r="F43" s="1">
         <v>3</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -2365,7 +2383,7 @@
       <c r="F44" s="1">
         <v>6.8</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
@@ -2390,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D46" s="1">
         <v>47</v>
@@ -2455,14 +2473,14 @@
       <c r="F49" s="1">
         <v>6</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="I49" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="J49" s="34" t="s">
+      <c r="G49" s="7"/>
+      <c r="I49" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2482,7 +2500,7 @@
       <c r="F50" s="1">
         <v>4.5</v>
       </c>
-      <c r="G50" s="22"/>
+      <c r="G50" s="7"/>
       <c r="I50" s="4" t="s">
         <v>9</v>
       </c>
@@ -2625,7 +2643,7 @@
       <c r="F55" s="1">
         <v>6.5</v>
       </c>
-      <c r="G55" s="11"/>
+      <c r="G55" s="7"/>
       <c r="I55" s="8" t="s">
         <v>14</v>
       </c>
@@ -2672,7 +2690,7 @@
       <c r="F57" s="1">
         <v>4</v>
       </c>
-      <c r="G57" s="11"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
@@ -2690,14 +2708,14 @@
       <c r="F58" s="1">
         <v>3</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="I58" s="34" t="s">
+      <c r="G58" s="7"/>
+      <c r="I58" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="J58" s="34" t="s">
+      <c r="J58" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="K58" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2746,7 +2764,7 @@
       <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="7"/>
       <c r="I60" s="6" t="s">
         <v>13</v>
       </c>
@@ -2944,7 +2962,7 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="27"/>
+      <c r="G68" s="26"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
@@ -3001,31 +3019,31 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="I72" s="34" t="s">
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="J72" s="34" t="s">
+      <c r="J72" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K72" s="34" t="s">
+      <c r="K72" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3033,6 +3051,10 @@
         <f>F74+F83+F92+F93+F94+F95</f>
         <v>5.3</v>
       </c>
+      <c r="K73">
+        <f>E74+E83+E92+E93+E94+E95</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
@@ -3058,77 +3080,105 @@
         <f>SUM(F91,F80)</f>
         <v>1.5</v>
       </c>
+      <c r="K74">
+        <f>E80+E91</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
+      <c r="D75" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
       <c r="I75" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="J75">
+        <f>F76+F77+F78+F88+F96+F101</f>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f>E76+E77+E78+E88+E96+E101</f>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
+      <c r="D76" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
       <c r="I76" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="J76">
+        <f>F75+F89+F90+F99+F100</f>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f>E75+E89+E90+E99+E100</f>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
+      <c r="D77" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
       <c r="I77" s="8" t="s">
         <v>14</v>
+      </c>
+      <c r="J77">
+        <f>F84+F85+F86+F87</f>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f>E84+E85+E86+E87</f>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="35" t="s">
+      <c r="C78" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
+      <c r="D78" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
       <c r="I78" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J78">
-        <f>F79+F81+F82</f>
-        <v>6</v>
+        <f>F79+F81+F82+F97</f>
+        <v>7</v>
       </c>
       <c r="K78">
         <f>E79+E82+E81</f>
@@ -3139,30 +3189,30 @@
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35">
+      <c r="D79" s="34"/>
+      <c r="E79" s="34">
         <v>6</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="34">
         <v>4</v>
       </c>
-      <c r="G79" s="35"/>
+      <c r="G79" s="34"/>
     </row>
     <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34">
         <v>3</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="34">
         <v>1.5</v>
       </c>
       <c r="G80" s="11"/>
@@ -3171,48 +3221,48 @@
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35">
+      <c r="D81" s="34"/>
+      <c r="E81" s="34">
         <v>3</v>
       </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="35">
+      <c r="D82" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="34">
         <v>3</v>
       </c>
-      <c r="F82" s="35">
+      <c r="F82" s="34">
         <v>2</v>
       </c>
-      <c r="G82" s="35"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="35">
+      <c r="D83" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="34">
         <v>1</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="34">
         <v>0.3</v>
       </c>
       <c r="G83" s="7"/>
@@ -3221,132 +3271,132 @@
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
+      <c r="D84" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
+      <c r="D85" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
+      <c r="D86" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="37">
         <v>44</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="37">
         <v>3</v>
       </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C89" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="35">
+      <c r="D89" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="34">
         <v>1</v>
       </c>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C90" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="35">
+      <c r="D90" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="34">
         <v>2</v>
       </c>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
+      <c r="C91" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="35">
+      <c r="C92" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="34">
         <v>4</v>
       </c>
-      <c r="F92" s="35">
+      <c r="F92" s="34">
         <v>2</v>
       </c>
       <c r="G92" s="11"/>
@@ -3355,85 +3405,143 @@
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="35">
+      <c r="C93" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="34">
         <v>1</v>
       </c>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
     </row>
     <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="35">
+      <c r="C94" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="34">
         <v>1</v>
       </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="35">
+      <c r="C95" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="34">
         <v>2</v>
       </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
+      <c r="C96" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" s="37">
+        <v>40</v>
+      </c>
+      <c r="E96" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="37">
+        <v>40</v>
+      </c>
+      <c r="E97" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="37">
+        <v>1</v>
+      </c>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
+      <c r="D98" s="37">
+        <v>48</v>
+      </c>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C98" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
+      <c r="C99" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="37">
+        <v>48</v>
+      </c>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="F101" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="G101" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3466,8 +3574,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3482,32 +3590,32 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="K1" s="2">
         <f>SUM(B2:B1000)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3518,22 +3626,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="16">
         <v>1.5</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="28">
+        <v>45202</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="G2" s="29">
-        <v>45202</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="K2" s="2">
         <v>46</v>
@@ -3545,18 +3653,18 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="16">
         <v>1.5</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -3568,18 +3676,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="16">
         <v>5</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -3589,11 +3697,11 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
@@ -3604,18 +3712,18 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="16">
         <v>40</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="28"/>
+        <v>108</v>
+      </c>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -3631,12 +3739,12 @@
         <v>5</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="33">
+        <v>109</v>
+      </c>
+      <c r="G7" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3646,11 +3754,11 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
@@ -3669,12 +3777,12 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="33">
+        <v>101</v>
+      </c>
+      <c r="G9" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3684,11 +3792,11 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
@@ -3699,11 +3807,11 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
@@ -3714,11 +3822,11 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
@@ -3729,11 +3837,11 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
@@ -3748,7 +3856,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
@@ -3759,11 +3867,11 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
@@ -3774,11 +3882,11 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
@@ -3789,11 +3897,11 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
@@ -3804,18 +3912,18 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="16">
         <v>3</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3831,12 +3939,12 @@
         <v>3</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3848,11 +3956,11 @@
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
@@ -3869,12 +3977,12 @@
         <v>2</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3884,11 +3992,11 @@
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
@@ -3899,11 +4007,11 @@
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
@@ -3914,18 +4022,18 @@
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="16">
         <v>8</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3935,11 +4043,11 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
@@ -3958,12 +4066,12 @@
         <v>5</v>
       </c>
       <c r="E26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="33">
+      <c r="G26" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -3973,11 +4081,11 @@
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
@@ -3990,18 +4098,18 @@
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="16">
         <v>3</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="30">
+        <v>109</v>
+      </c>
+      <c r="G28" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -4011,11 +4119,11 @@
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
@@ -4026,11 +4134,11 @@
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
@@ -4043,18 +4151,18 @@
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>45202</v>
       </c>
     </row>
@@ -4064,18 +4172,18 @@
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="16">
         <v>7</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="33">
+      <c r="G32" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4085,18 +4193,18 @@
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="16">
         <v>0.5</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4112,12 +4220,12 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="33">
+      <c r="G34" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4127,11 +4235,11 @@
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
@@ -4142,11 +4250,11 @@
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
@@ -4165,12 +4273,12 @@
         <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="31">
+        <v>101</v>
+      </c>
+      <c r="G37" s="30">
         <v>45216</v>
       </c>
     </row>
@@ -4180,11 +4288,11 @@
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
@@ -4195,11 +4303,11 @@
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
@@ -4210,18 +4318,18 @@
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D40" s="16">
         <v>3</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="33">
+        <v>109</v>
+      </c>
+      <c r="G40" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4229,20 +4337,22 @@
       <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
       <c r="C41" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="16">
         <v>2</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="33">
+        <v>101</v>
+      </c>
+      <c r="G41" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4254,18 +4364,18 @@
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="33">
+        <v>109</v>
+      </c>
+      <c r="G42" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4277,18 +4387,18 @@
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="16">
         <v>3</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" s="33">
+        <v>109</v>
+      </c>
+      <c r="G43" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4300,18 +4410,18 @@
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="16">
         <v>0.5</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="33">
+        <v>101</v>
+      </c>
+      <c r="G44" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4321,18 +4431,18 @@
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="16">
         <v>1.5</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" s="33">
+        <v>109</v>
+      </c>
+      <c r="G45" s="32">
         <v>45216</v>
       </c>
     </row>
@@ -4342,11 +4452,11 @@
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
@@ -4357,18 +4467,18 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="32">
+        <v>109</v>
+      </c>
+      <c r="G47" s="31">
         <v>45216</v>
       </c>
     </row>
@@ -4380,24 +4490,37 @@
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="16">
         <v>2</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="32">
+        <v>108</v>
+      </c>
+      <c r="G48" s="31">
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="C49" s="40"/>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38">
+        <v>48</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="51">
+        <v>5</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4405,6 +4528,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4613,24 +4753,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4647,29 +4795,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2315FD10-AFF9-46A4-B618-F17A16A9AC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928351ED-1976-4A12-AA30-5ABB0515411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1547,23 +1547,23 @@
   </sheetPr>
   <dimension ref="A2:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" zoomScale="111" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="G69" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.8203125" customWidth="1"/>
-    <col min="3" max="3" width="48.52734375" customWidth="1"/>
-    <col min="5" max="5" width="13.8203125" customWidth="1"/>
-    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.17578125" customWidth="1"/>
-    <col min="11" max="11" width="35.46875" customWidth="1"/>
-    <col min="12" max="12" width="26.8203125" customWidth="1"/>
-    <col min="16" max="16" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.77734375" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1598,11 +1598,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>174.5</v>
+        <v>178.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>215.36999999999998</v>
+        <v>223.76999999999995</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1611,7 +1611,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -1638,7 +1638,7 @@
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="46"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="J13" s="48"/>
       <c r="K13" s="46"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="J14" s="48"/>
       <c r="K14" s="46"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="46"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="J17" s="49"/>
       <c r="K17" s="46"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
     </row>
-    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="43" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
     </row>
-    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -2331,7 +2331,7 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
     </row>
-    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G68" s="27"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="43" t="s">
         <v>67</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
       <c r="D73" s="43"/>
@@ -3030,7 +3030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3050,10 +3050,14 @@
       </c>
       <c r="J74">
         <f>SUM(F91,F80)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9.9</v>
+      </c>
+      <c r="K74">
+        <f>SUM(E80,E91)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3143,9 +3147,9 @@
       <c r="F79" s="35">
         <v>4</v>
       </c>
-      <c r="G79" s="35"/>
-    </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3157,11 +3161,11 @@
         <v>3</v>
       </c>
       <c r="F80" s="35">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3175,7 +3179,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3191,9 +3195,9 @@
       <c r="F82" s="35">
         <v>2</v>
       </c>
-      <c r="G82" s="35"/>
-    </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3213,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -3223,7 +3227,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3237,7 +3241,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -3251,7 +3255,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="37" t="s">
         <v>14</v>
       </c>
@@ -3267,7 +3271,7 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -3279,7 +3283,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3299,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -3311,7 +3315,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -3321,11 +3325,15 @@
       <c r="D91" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-    </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E91" s="35">
+        <v>4</v>
+      </c>
+      <c r="F91" s="35">
+        <v>2.7</v>
+      </c>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3341,7 +3349,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3357,7 +3365,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3373,7 +3381,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -3389,7 +3397,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="41" t="s">
         <v>15</v>
       </c>
@@ -3401,7 +3409,7 @@
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="38" t="s">
         <v>146</v>
       </c>
@@ -3413,7 +3421,7 @@
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>12</v>
       </c>
@@ -3460,17 +3468,17 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" customWidth="1"/>
-    <col min="2" max="2" width="35.46875" customWidth="1"/>
-    <col min="3" max="3" width="27.17578125" customWidth="1"/>
-    <col min="4" max="4" width="10.17578125" customWidth="1"/>
-    <col min="7" max="7" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>92</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -3529,7 +3537,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3550,7 +3558,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3573,7 +3581,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -3588,7 +3596,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -3607,7 +3615,7 @@
       </c>
       <c r="G6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -3645,7 +3653,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -3668,7 +3676,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -3683,7 +3691,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -3698,7 +3706,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -3713,7 +3721,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -3728,7 +3736,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -3743,7 +3751,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -3758,7 +3766,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -3773,7 +3781,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -3788,7 +3796,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3809,7 +3817,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -3847,7 +3855,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3883,7 +3891,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3898,7 +3906,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -3919,7 +3927,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3934,7 +3942,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3957,7 +3965,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3972,7 +3980,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -4010,7 +4018,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -4025,7 +4033,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -4048,7 +4056,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -4069,7 +4077,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -4090,7 +4098,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -4111,7 +4119,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -4126,7 +4134,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -4141,7 +4149,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -4164,7 +4172,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4179,7 +4187,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4194,7 +4202,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4259,7 +4267,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4282,7 +4290,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4305,7 +4313,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4326,7 +4334,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4341,7 +4349,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -4385,7 +4393,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="C49" s="40"/>
     </row>
@@ -4395,23 +4403,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4620,32 +4611,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4662,4 +4645,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928351ED-1976-4A12-AA30-5ABB0515411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991EE63B-9787-445C-B12B-B62D7C8F6A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,18 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={96BFB097-130F-4FF8-8D67-2AB0D84D7421}</author>
+    <author>tc={BADE6EDE-BDFE-47C9-A59D-6216D84733C2}</author>
   </authors>
   <commentList>
     <comment ref="C97" authorId="0" shapeId="0" xr:uid="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+     (Un comando para instalar y otro para arrancar)</t>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="1" shapeId="0" xr:uid="{BADE6EDE-BDFE-47C9-A59D-6216D84733C2}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="151">
   <si>
     <t>Nombre</t>
   </si>
@@ -497,9 +506,6 @@
     <t>Interfaz de ingreso/retiro monedas</t>
   </si>
   <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Mejora Compra Monedas Visual</t>
   </si>
   <si>
@@ -510,6 +516,9 @@
   </si>
   <si>
     <t>Demo 1</t>
+  </si>
+  <si>
+    <t>Arrancar la aplicación por cmd en una máquina vacía (investigacion)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -594,8 +603,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,8 +737,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -805,11 +826,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -904,6 +938,9 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1537,6 +1574,9 @@
   <threadedComment ref="C97" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{96BFB097-130F-4FF8-8D67-2AB0D84D7421}">
     <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
   </threadedComment>
+  <threadedComment ref="C98" dT="2023-10-19T08:57:35.81" personId="{9E3B25B0-60DB-4849-A9FC-31D877943E05}" id="{BADE6EDE-BDFE-47C9-A59D-6216D84733C2}">
+    <text xml:space="preserve"> (Un comando para instalar y otro para arrancar)</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1545,16 +1585,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P98"/>
+  <dimension ref="A2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G69" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="3" max="3" width="59.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.21875" customWidth="1"/>
@@ -1598,11 +1638,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>178.5</v>
+        <v>181.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>223.76999999999995</v>
+        <v>232.56999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -2347,7 +2387,7 @@
       <c r="F43" s="1">
         <v>3</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
@@ -2365,7 +2405,7 @@
       <c r="F44" s="1">
         <v>6.8</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
@@ -2390,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="1">
         <v>47</v>
@@ -2457,7 +2497,7 @@
       </c>
       <c r="G49" s="22"/>
       <c r="I49" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>45</v>
@@ -3067,8 +3107,12 @@
       <c r="D75" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
+      <c r="E75" s="35">
+        <v>1</v>
+      </c>
+      <c r="F75" s="35">
+        <v>3</v>
+      </c>
       <c r="G75" s="35"/>
       <c r="I75" s="9" t="s">
         <v>15</v>
@@ -3090,6 +3134,14 @@
       <c r="I76" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J76">
+        <f>F89+F90+F98+F99</f>
+        <v>5.8</v>
+      </c>
+      <c r="K76">
+        <f>E75+E89+E90+E98+E99</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
@@ -3312,7 +3364,9 @@
       <c r="E90" s="35">
         <v>2</v>
       </c>
-      <c r="F90" s="35"/>
+      <c r="F90" s="35">
+        <v>1.5</v>
+      </c>
       <c r="G90" s="35"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3410,28 +3464,46 @@
       <c r="G96" s="38"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54">
+        <v>1</v>
+      </c>
+      <c r="F98" s="54">
+        <v>4.3</v>
+      </c>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53">
+        <v>1</v>
+      </c>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4403,6 +4475,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4611,24 +4700,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4645,29 +4742,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928351ED-1976-4A12-AA30-5ABB0515411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B5DD4-F093-42DE-B03E-A5B3BD3D3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -506,10 +506,10 @@
     <t>Arrancar la aplicación por cmd en una máquina vacía</t>
   </si>
   <si>
-    <t>;Mejora Interfaz venta/compra monedas</t>
-  </si>
-  <si>
     <t>Demo 1</t>
+  </si>
+  <si>
+    <t>Mejora Interfaz venta/compra monedas</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1547,7 @@
   </sheetPr>
   <dimension ref="A2:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G69" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>223.76999999999995</v>
+        <v>225.56999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1725,8 +1725,8 @@
         <v>13</v>
       </c>
       <c r="K9" s="46">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66</f>
-        <v>43.820000000000007</v>
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80</f>
+        <v>55.52000000000001</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D46" s="1">
         <v>47</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G49" s="22"/>
       <c r="I49" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>45</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="J74">
         <f>SUM(F91,F80)</f>
-        <v>9.9</v>
+        <v>11.7</v>
       </c>
       <c r="K74">
         <f>SUM(E80,E91)</f>
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="35">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -3329,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="35">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="G91" s="11"/>
     </row>
@@ -4403,6 +4403,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4611,24 +4628,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4645,29 +4670,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B5DD4-F093-42DE-B03E-A5B3BD3D3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544A747-425D-46ED-9961-71EA1EC11132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="156">
   <si>
     <t>Nombre</t>
   </si>
@@ -510,6 +510,21 @@
   </si>
   <si>
     <t>Mejora Interfaz venta/compra monedas</t>
+  </si>
+  <si>
+    <t>DEMO4</t>
+  </si>
+  <si>
+    <t>Hacer un juego multijugador (continuación)</t>
+  </si>
+  <si>
+    <t>Rediseñar interfaz de cartas</t>
+  </si>
+  <si>
+    <t>Animación ruleta europea</t>
+  </si>
+  <si>
+    <t>Retrasada a siguiente demo</t>
   </si>
 </sst>
 </file>
@@ -519,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -593,6 +608,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="22">
@@ -723,7 +745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -805,11 +827,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -902,6 +944,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1545,22 +1600,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P98"/>
+  <dimension ref="A2:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,7 +1644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1598,11 +1653,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>178.5</v>
+        <v>206.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>225.56999999999996</v>
+        <v>228.06999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1611,7 +1666,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
@@ -1625,7 +1680,7 @@
       </c>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
@@ -1933,7 +1988,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +2008,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="46"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +2026,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +2049,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
     </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2012,7 +2067,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2030,7 +2085,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2103,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2066,7 +2121,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2139,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2102,7 +2157,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2175,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2193,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2210,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2228,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2242,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2205,7 +2260,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2223,7 +2278,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2296,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2259,7 +2314,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2277,7 +2332,7 @@
       </c>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2350,7 @@
       </c>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2313,7 +2368,7 @@
       </c>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B41" s="43" t="s">
         <v>36</v>
       </c>
@@ -2323,7 +2378,7 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
     </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -2331,7 +2386,7 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
     </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -2349,7 +2404,7 @@
       </c>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2422,7 @@
       </c>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -2385,7 +2440,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -2403,7 +2458,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2476,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -2439,7 +2494,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -2466,7 +2521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -2638,7 +2693,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +2711,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2729,7 @@
       </c>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2785,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2759,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3044,7 +3099,9 @@
         <v>2</v>
       </c>
       <c r="F74" s="1"/>
-      <c r="G74" s="35"/>
+      <c r="G74" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="I74" s="6" t="s">
         <v>13</v>
       </c>
@@ -3069,7 +3126,9 @@
       </c>
       <c r="E75" s="35"/>
       <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
+      <c r="G75" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="I75" s="9" t="s">
         <v>15</v>
       </c>
@@ -3086,7 +3145,9 @@
       </c>
       <c r="E76" s="35"/>
       <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
+      <c r="G76" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="I76" s="5" t="s">
         <v>12</v>
       </c>
@@ -3103,7 +3164,9 @@
       </c>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
+      <c r="G77" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="I77" s="8" t="s">
         <v>14</v>
       </c>
@@ -3120,7 +3183,9 @@
       </c>
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
+      <c r="G78" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="I78" s="10" t="s">
         <v>16</v>
       </c>
@@ -3177,7 +3242,9 @@
         <v>3</v>
       </c>
       <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
+      <c r="G81" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
@@ -3211,7 +3278,9 @@
         <v>1</v>
       </c>
       <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
+      <c r="G83" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
@@ -3225,9 +3294,11 @@
       </c>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-    </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -3239,7 +3310,9 @@
       </c>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
+      <c r="G85" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
@@ -3253,7 +3326,9 @@
       </c>
       <c r="E86" s="35"/>
       <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
+      <c r="G86" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="37" t="s">
@@ -3269,7 +3344,9 @@
         <v>3</v>
       </c>
       <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
+      <c r="G87" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
@@ -3281,7 +3358,9 @@
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
       <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
+      <c r="G88" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
@@ -3297,7 +3376,9 @@
         <v>1</v>
       </c>
       <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
+      <c r="G89" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
@@ -3313,7 +3394,9 @@
         <v>2</v>
       </c>
       <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
+      <c r="G90" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
@@ -3347,7 +3430,9 @@
         <v>4</v>
       </c>
       <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
+      <c r="G92" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
@@ -3363,9 +3448,11 @@
         <v>1</v>
       </c>
       <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-    </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3379,7 +3466,9 @@
         <v>1</v>
       </c>
       <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
+      <c r="G94" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
@@ -3395,7 +3484,9 @@
         <v>2</v>
       </c>
       <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
+      <c r="G95" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="41" t="s">
@@ -3407,7 +3498,9 @@
       <c r="D96" s="38"/>
       <c r="E96" s="38"/>
       <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
+      <c r="G96" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="38" t="s">
@@ -3419,7 +3512,9 @@
       <c r="D97" s="38"/>
       <c r="E97" s="38"/>
       <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
+      <c r="G97" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
@@ -3431,10 +3526,147 @@
       <c r="D98" s="35"/>
       <c r="E98" s="35"/>
       <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
+      <c r="G98" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="55"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="35">
+        <v>4</v>
+      </c>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+    </row>
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="35">
+        <v>1</v>
+      </c>
+      <c r="F102" s="35">
+        <v>2</v>
+      </c>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="35">
+        <v>1</v>
+      </c>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="35">
+        <v>2</v>
+      </c>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+    </row>
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="35">
+        <v>24</v>
+      </c>
+      <c r="E105" s="35">
+        <v>15</v>
+      </c>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+    </row>
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="35">
+        <v>3</v>
+      </c>
+      <c r="F106" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="35">
+        <v>2</v>
+      </c>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="B99:G100"/>
     <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="K3:K5"/>
@@ -3468,13 +3700,13 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3537,7 +3769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -3558,7 +3790,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -3796,7 +4028,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -3817,7 +4049,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -3838,7 +4070,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -3855,7 +4087,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -3876,7 +4108,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -3891,7 +4123,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3906,7 +4138,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -3927,7 +4159,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -3942,7 +4174,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -3965,7 +4197,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -3980,7 +4212,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -4003,7 +4235,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -4018,7 +4250,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -4033,7 +4265,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -4056,7 +4288,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -4077,7 +4309,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -4098,7 +4330,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -4119,7 +4351,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -4134,7 +4366,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -4149,7 +4381,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -4172,7 +4404,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -4187,7 +4419,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -4202,7 +4434,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -4223,7 +4455,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -4244,7 +4476,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -4267,7 +4499,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -4290,7 +4522,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -4313,7 +4545,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -4334,7 +4566,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -4349,7 +4581,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -4403,23 +4635,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4628,32 +4843,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4670,4 +4877,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B5DD4-F093-42DE-B03E-A5B3BD3D3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58C1CF-B9CC-4B64-BE66-347842DB683D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="152">
   <si>
     <t>Nombre</t>
   </si>
@@ -510,6 +510,9 @@
   </si>
   <si>
     <t>Mejora Interfaz venta/compra monedas</t>
+  </si>
+  <si>
+    <t>herencia html toolbar</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1548,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P98"/>
+  <dimension ref="A2:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1598,11 +1601,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>178.5</v>
+        <v>179.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>225.56999999999996</v>
+        <v>226.56999999999996</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1725,8 +1728,8 @@
         <v>13</v>
       </c>
       <c r="K9" s="46">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80</f>
-        <v>55.52000000000001</v>
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99</f>
+        <v>56.52000000000001</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3049,12 +3052,12 @@
         <v>13</v>
       </c>
       <c r="J74">
-        <f>SUM(F91,F80)</f>
-        <v>11.7</v>
+        <f>SUM(F91+F80+F99)</f>
+        <v>12.7</v>
       </c>
       <c r="K74">
-        <f>SUM(E80,E91)</f>
-        <v>7</v>
+        <f>SUM(E80+E91+E99)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3432,6 +3435,22 @@
       <c r="E98" s="35"/>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35">
+        <v>1</v>
+      </c>
+      <c r="F99" s="35">
+        <v>1</v>
+      </c>
+      <c r="G99" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4403,23 +4422,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4628,32 +4630,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4670,4 +4664,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58C1CF-B9CC-4B64-BE66-347842DB683D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398CAEB-6428-4FAC-B3DC-0CF29ACCFBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
   <si>
     <t>Nombre</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>herencia html toolbar</t>
+  </si>
+  <si>
+    <t>Ajustes (pt. 2)</t>
   </si>
 </sst>
 </file>
@@ -1548,10 +1551,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P99"/>
+  <dimension ref="A2:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1601,11 +1604,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>179.5</v>
+        <v>181.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>226.56999999999996</v>
+        <v>228.46999999999994</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1729,7 +1732,7 @@
       </c>
       <c r="K9" s="46">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99</f>
-        <v>56.52000000000001</v>
+        <v>58.420000000000009</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2137,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>22.17</v>
+        <v>23.57</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -2520,7 +2523,7 @@
       </c>
       <c r="J51">
         <f>F14+F24+F26+F28+F30+F8-15.17</f>
-        <v>12.550000000000002</v>
+        <v>13.950000000000001</v>
       </c>
       <c r="K51">
         <f>E8+E19+E24+E26+E28+E30</f>
@@ -3053,7 +3056,7 @@
       </c>
       <c r="J74">
         <f>SUM(F91+F80+F99)</f>
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="K74">
         <f>SUM(E80+E91+E99)</f>
@@ -3164,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="35">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G80" s="11"/>
     </row>
@@ -3450,7 +3453,23 @@
       <c r="F99" s="35">
         <v>1</v>
       </c>
-      <c r="G99" s="11"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="1">
+        <v>39</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3483,14 +3502,14 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.21875" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
@@ -4422,6 +4441,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -4630,24 +4666,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4664,29 +4708,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DF5F28B-5105-40F9-976F-62D07B763C33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A398CAEB-6428-4FAC-B3DC-0CF29ACCFBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD735C-4673-4D3A-9DF0-E8BE02C70033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="154">
   <si>
     <t>Nombre</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>Ajustes (pt. 2)</t>
+  </si>
+  <si>
+    <t>Mnesajes de victoria/Derrota/empate</t>
   </si>
 </sst>
 </file>
@@ -1551,10 +1554,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P100"/>
+  <dimension ref="A2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1604,11 +1607,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E992)</f>
-        <v>181.5</v>
+        <v>182.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>228.46999999999994</v>
+        <v>230.46999999999994</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1731,8 +1734,8 @@
         <v>13</v>
       </c>
       <c r="K9" s="46">
-        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99</f>
-        <v>58.420000000000009</v>
+        <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99+F101</f>
+        <v>60.420000000000009</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2140,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>23.57</v>
+        <v>24.07</v>
       </c>
       <c r="G30" s="11"/>
     </row>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="J51">
         <f>F14+F24+F26+F28+F30+F8-15.17</f>
-        <v>13.950000000000001</v>
+        <v>14.450000000000001</v>
       </c>
       <c r="K51">
         <f>E8+E19+E24+E26+E28+E30</f>
@@ -3055,8 +3058,8 @@
         <v>13</v>
       </c>
       <c r="J74">
-        <f>SUM(F91+F80+F99)</f>
-        <v>13.2</v>
+        <f>SUM(F91+F80+F99+F101)</f>
+        <v>14.7</v>
       </c>
       <c r="K74">
         <f>SUM(E80+E91+E99)</f>
@@ -3470,6 +3473,24 @@
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="27"/>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" s="1">
+        <v>39</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G101" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/Documentación/To Do - Requisitos_ 2ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 2ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD735C-4673-4D3A-9DF0-E8BE02C70033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC41902-2C23-4889-8160-89008A0DB4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,8 +1556,8 @@
   </sheetPr>
   <dimension ref="A2:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>230.46999999999994</v>
+        <v>231.46999999999994</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="23"/>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="K9" s="46">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+F91+F80+F99+F101</f>
-        <v>60.420000000000009</v>
+        <v>61.420000000000009</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="J74">
         <f>SUM(F91+F80+F99+F101)</f>
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="K74">
         <f>SUM(E80+E91+E99)</f>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G101" s="11"/>
     </row>
